--- a/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,22 +629,22 @@
         <v>1.0023752786411</v>
       </c>
       <c r="D3">
+        <v>1.003845358634402</v>
+      </c>
+      <c r="E3">
+        <v>0.9962083622953579</v>
+      </c>
+      <c r="F3">
+        <v>1.001757772987087</v>
+      </c>
+      <c r="G3">
+        <v>1.00150365895919</v>
+      </c>
+      <c r="H3">
         <v>0.9927410062601087</v>
       </c>
-      <c r="E3">
-        <v>1.00150365895919</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.0023752786411</v>
-      </c>
-      <c r="G3">
-        <v>1.003845358634402</v>
-      </c>
-      <c r="H3">
-        <v>0.9962083622953579</v>
-      </c>
-      <c r="I3">
-        <v>1.001757772987087</v>
       </c>
       <c r="J3">
         <v>0.9927410062601087</v>
@@ -728,7 +680,7 @@
         <v>0.9997385729628743</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,22 +691,22 @@
         <v>1.00461239214728</v>
       </c>
       <c r="D4">
+        <v>1.007395301358965</v>
+      </c>
+      <c r="E4">
+        <v>0.9926792649804023</v>
+      </c>
+      <c r="F4">
+        <v>1.003394945161671</v>
+      </c>
+      <c r="G4">
+        <v>1.002893941360726</v>
+      </c>
+      <c r="H4">
         <v>0.9859720275282761</v>
       </c>
-      <c r="E4">
-        <v>1.002893941360726</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.00461239214728</v>
-      </c>
-      <c r="G4">
-        <v>1.007395301358965</v>
-      </c>
-      <c r="H4">
-        <v>0.9926792649804024</v>
-      </c>
-      <c r="I4">
-        <v>1.003394945161671</v>
       </c>
       <c r="J4">
         <v>0.9859720275282761</v>
@@ -790,7 +742,7 @@
         <v>0.9994913120895533</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +753,22 @@
         <v>1.008660263006518</v>
       </c>
       <c r="D5">
+        <v>1.014366112737799</v>
+      </c>
+      <c r="E5">
+        <v>0.9859769048233268</v>
+      </c>
+      <c r="F5">
+        <v>1.006494220405977</v>
+      </c>
+      <c r="G5">
+        <v>1.005602843705429</v>
+      </c>
+      <c r="H5">
         <v>0.973224645666281</v>
       </c>
-      <c r="E5">
-        <v>1.005602843705429</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.008660263006518</v>
-      </c>
-      <c r="G5">
-        <v>1.014366112737799</v>
-      </c>
-      <c r="H5">
-        <v>0.9859769048233268</v>
-      </c>
-      <c r="I5">
-        <v>1.006494220405977</v>
       </c>
       <c r="J5">
         <v>0.973224645666281</v>
@@ -852,7 +804,7 @@
         <v>0.9990541650575552</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>1.012617360109366</v>
       </c>
       <c r="D6">
-        <v>0.9607770057837599</v>
+        <v>1.021160168371013</v>
       </c>
       <c r="E6">
+        <v>0.9794356739506249</v>
+      </c>
+      <c r="F6">
+        <v>1.009519725971102</v>
+      </c>
+      <c r="G6">
         <v>1.008244979249284</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0.9607770057837598</v>
+      </c>
+      <c r="I6">
         <v>1.012617360109366</v>
       </c>
-      <c r="G6">
-        <v>1.021160168371013</v>
-      </c>
-      <c r="H6">
-        <v>0.9794356739506249</v>
-      </c>
-      <c r="I6">
-        <v>1.009519725971102</v>
-      </c>
       <c r="J6">
-        <v>0.9607770057837599</v>
+        <v>0.9607770057837598</v>
       </c>
       <c r="K6">
         <v>1.012617360109366</v>
@@ -902,19 +854,19 @@
         <v>0.9938797817141366</v>
       </c>
       <c r="Q6">
-        <v>0.9938797817141366</v>
+        <v>0.9938797817141367</v>
       </c>
       <c r="R6">
-        <v>0.9985641763129439</v>
+        <v>0.998564176312944</v>
       </c>
       <c r="S6">
-        <v>0.9985641763129439</v>
+        <v>0.998564176312944</v>
       </c>
       <c r="T6">
         <v>0.9986258189058582</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000077452018366</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="D7">
-        <v>0.9995351939800946</v>
+        <v>1.00038013711113</v>
       </c>
       <c r="E7">
+        <v>0.9997298715862371</v>
+      </c>
+      <c r="F7">
+        <v>1.000120275696966</v>
+      </c>
+      <c r="G7">
         <v>1.000137901466704</v>
       </c>
-      <c r="F7">
-        <v>1.000077452018366</v>
-      </c>
-      <c r="G7">
-        <v>1.00038013711113</v>
-      </c>
       <c r="H7">
-        <v>0.9997298715862372</v>
+        <v>0.9995351939800953</v>
       </c>
       <c r="I7">
-        <v>1.000120275696966</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="J7">
-        <v>0.9995351939800946</v>
+        <v>0.9995351939800953</v>
       </c>
       <c r="K7">
-        <v>1.000077452018366</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="L7">
         <v>1.000137901466704</v>
       </c>
       <c r="M7">
-        <v>0.9998365477233992</v>
+        <v>0.9998365477233995</v>
       </c>
       <c r="N7">
-        <v>0.9998365477233992</v>
+        <v>0.9998365477233995</v>
       </c>
       <c r="O7">
         <v>0.9998009890110119</v>
       </c>
       <c r="P7">
-        <v>0.9999168491550546</v>
+        <v>0.9999168491550549</v>
       </c>
       <c r="Q7">
-        <v>0.9999168491550545</v>
+        <v>0.9999168491550549</v>
       </c>
       <c r="R7">
-        <v>0.9999569998708823</v>
+        <v>0.9999569998708824</v>
       </c>
       <c r="S7">
-        <v>0.9999569998708823</v>
+        <v>0.9999569998708824</v>
       </c>
       <c r="T7">
         <v>0.9999968053099161</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000237077428879</v>
       </c>
       <c r="D8">
-        <v>0.9987492523799005</v>
+        <v>1.000972743138677</v>
       </c>
       <c r="E8">
+        <v>0.9992831226717243</v>
+      </c>
+      <c r="F8">
+        <v>1.000320798069191</v>
+      </c>
+      <c r="G8">
         <v>1.000355253926609</v>
       </c>
-      <c r="F8">
+      <c r="H8">
+        <v>0.9987492523799008</v>
+      </c>
+      <c r="I8">
         <v>1.000237077428879</v>
       </c>
-      <c r="G8">
-        <v>1.000972743138677</v>
-      </c>
-      <c r="H8">
-        <v>0.9992831226717243</v>
-      </c>
-      <c r="I8">
-        <v>1.000320798069191</v>
-      </c>
       <c r="J8">
-        <v>0.9987492523799005</v>
+        <v>0.9987492523799008</v>
       </c>
       <c r="K8">
         <v>1.000237077428879</v>
@@ -1026,7 +978,7 @@
         <v>0.9997805279117964</v>
       </c>
       <c r="Q8">
-        <v>0.9997805279117963</v>
+        <v>0.9997805279117964</v>
       </c>
       <c r="R8">
         <v>0.999894665291067</v>
@@ -1035,10 +987,10 @@
         <v>0.999894665291067</v>
       </c>
       <c r="T8">
-        <v>0.9999863746024968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999986374602497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,22 +1001,22 @@
         <v>1.000385819517056</v>
       </c>
       <c r="D9">
+        <v>1.001277190014584</v>
+      </c>
+      <c r="E9">
+        <v>0.9990099308280531</v>
+      </c>
+      <c r="F9">
+        <v>1.000445883392576</v>
+      </c>
+      <c r="G9">
+        <v>1.000470603198203</v>
+      </c>
+      <c r="H9">
         <v>0.9982417571644624</v>
       </c>
-      <c r="E9">
-        <v>1.000470603198203</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.000385819517056</v>
-      </c>
-      <c r="G9">
-        <v>1.001277190014584</v>
-      </c>
-      <c r="H9">
-        <v>0.9990099308280531</v>
-      </c>
-      <c r="I9">
-        <v>1.000445883392576</v>
       </c>
       <c r="J9">
         <v>0.9982417571644624</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999718640191558</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,22 +1063,22 @@
         <v>1.000761618794075</v>
       </c>
       <c r="D10">
+        <v>1.002849235094913</v>
+      </c>
+      <c r="E10">
+        <v>0.9978565472289913</v>
+      </c>
+      <c r="F10">
+        <v>1.000961596883745</v>
+      </c>
+      <c r="G10">
+        <v>1.001043896693934</v>
+      </c>
+      <c r="H10">
         <v>0.9962335411765666</v>
       </c>
-      <c r="E10">
-        <v>1.001043896693934</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.000761618794075</v>
-      </c>
-      <c r="G10">
-        <v>1.002849235094913</v>
-      </c>
-      <c r="H10">
-        <v>0.9978565472289913</v>
-      </c>
-      <c r="I10">
-        <v>1.000961596883745</v>
       </c>
       <c r="J10">
         <v>0.9962335411765666</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999510726453708</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,22 +1125,22 @@
         <v>1.001426611340561</v>
       </c>
       <c r="D11">
+        <v>1.004533828441944</v>
+      </c>
+      <c r="E11">
+        <v>0.9964489136067801</v>
+      </c>
+      <c r="F11">
+        <v>1.001600974995179</v>
+      </c>
+      <c r="G11">
+        <v>1.001672727080398</v>
+      </c>
+      <c r="H11">
         <v>0.9936738461471508</v>
       </c>
-      <c r="E11">
-        <v>1.001672727080398</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
         <v>1.001426611340561</v>
-      </c>
-      <c r="G11">
-        <v>1.004533828441944</v>
-      </c>
-      <c r="H11">
-        <v>0.9964489136067801</v>
-      </c>
-      <c r="I11">
-        <v>1.001600974995179</v>
       </c>
       <c r="J11">
         <v>0.9936738461471508</v>
@@ -1224,7 +1176,7 @@
         <v>0.9998928169353355</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,22 +1187,22 @@
         <v>0.9891261156197422</v>
       </c>
       <c r="D12">
+        <v>0.9446912132375229</v>
+      </c>
+      <c r="E12">
+        <v>1.038768516182305</v>
+      </c>
+      <c r="F12">
+        <v>0.9828655059055107</v>
+      </c>
+      <c r="G12">
+        <v>0.9802891304142625</v>
+      </c>
+      <c r="H12">
         <v>1.065687611343511</v>
       </c>
-      <c r="E12">
-        <v>0.9802891304142625</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
         <v>0.9891261156197422</v>
-      </c>
-      <c r="G12">
-        <v>0.9446912132375229</v>
-      </c>
-      <c r="H12">
-        <v>1.038768516182305</v>
-      </c>
-      <c r="I12">
-        <v>0.9828655059055107</v>
       </c>
       <c r="J12">
         <v>1.065687611343511</v>
@@ -1286,7 +1238,7 @@
         <v>1.000238015450476</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,22 +1249,22 @@
         <v>0.9927659664095386</v>
       </c>
       <c r="D13">
+        <v>0.991457346216166</v>
+      </c>
+      <c r="E13">
+        <v>1.010102917857146</v>
+      </c>
+      <c r="F13">
+        <v>0.9951083754200345</v>
+      </c>
+      <c r="G13">
+        <v>0.9960723305446388</v>
+      </c>
+      <c r="H13">
         <v>1.021084726870479</v>
       </c>
-      <c r="E13">
-        <v>0.996072330544639</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.9927659664095386</v>
-      </c>
-      <c r="G13">
-        <v>0.9914573462161658</v>
-      </c>
-      <c r="H13">
-        <v>1.010102917857146</v>
-      </c>
-      <c r="I13">
-        <v>0.9951083754200345</v>
       </c>
       <c r="J13">
         <v>1.021084726870479</v>
@@ -1321,7 +1273,7 @@
         <v>0.9927659664095386</v>
       </c>
       <c r="L13">
-        <v>0.996072330544639</v>
+        <v>0.9960723305446388</v>
       </c>
       <c r="M13">
         <v>1.008578528707559</v>
@@ -1348,7 +1300,7 @@
         <v>1.001098610553001</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,22 +1311,22 @@
         <v>0.9565558125374185</v>
       </c>
       <c r="D14">
+        <v>0.8865750126537043</v>
+      </c>
+      <c r="E14">
+        <v>1.094569509018459</v>
+      </c>
+      <c r="F14">
+        <v>0.9568255160372351</v>
+      </c>
+      <c r="G14">
+        <v>0.9569365107262972</v>
+      </c>
+      <c r="H14">
         <v>1.173467059371904</v>
       </c>
-      <c r="E14">
-        <v>0.9569365107262972</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.9565558125374185</v>
-      </c>
-      <c r="G14">
-        <v>0.8865750126537043</v>
-      </c>
-      <c r="H14">
-        <v>1.094569509018459</v>
-      </c>
-      <c r="I14">
-        <v>0.9568255160372351</v>
       </c>
       <c r="J14">
         <v>1.173467059371904</v>
@@ -1410,7 +1362,7 @@
         <v>1.004154903390836</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,22 +1373,22 @@
         <v>0.9881400096302552</v>
       </c>
       <c r="D15">
+        <v>0.969129600173114</v>
+      </c>
+      <c r="E15">
+        <v>1.025175499027671</v>
+      </c>
+      <c r="F15">
+        <v>0.988737009118141</v>
+      </c>
+      <c r="G15">
+        <v>0.9889826844603619</v>
+      </c>
+      <c r="H15">
         <v>1.04444737005346</v>
       </c>
-      <c r="E15">
-        <v>0.9889826844603619</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.9881400096302552</v>
-      </c>
-      <c r="G15">
-        <v>0.969129600173114</v>
-      </c>
-      <c r="H15">
-        <v>1.025175499027671</v>
-      </c>
-      <c r="I15">
-        <v>0.9887370091181411</v>
       </c>
       <c r="J15">
         <v>1.04444737005346</v>
@@ -1472,7 +1424,7 @@
         <v>1.000768695410501</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999770878877609</v>
+        <v>1.044610609471675</v>
       </c>
       <c r="D16">
-        <v>1.000107112703649</v>
+        <v>1.076893724163471</v>
       </c>
       <c r="E16">
-        <v>1.000083412734016</v>
+        <v>0.9260992847781709</v>
       </c>
       <c r="F16">
-        <v>0.999770878877609</v>
+        <v>1.034169671874483</v>
       </c>
       <c r="G16">
-        <v>1.000270535271214</v>
+        <v>1.029873003672143</v>
       </c>
       <c r="H16">
-        <v>0.9999929809802389</v>
+        <v>0.8594740318908226</v>
       </c>
       <c r="I16">
-        <v>0.9999922931157691</v>
+        <v>1.044610609471675</v>
       </c>
       <c r="J16">
-        <v>1.000107112703649</v>
+        <v>0.8594740318908226</v>
       </c>
       <c r="K16">
-        <v>0.999770878877609</v>
+        <v>1.044610609471675</v>
       </c>
       <c r="L16">
-        <v>1.000083412734016</v>
+        <v>1.029873003672143</v>
       </c>
       <c r="M16">
-        <v>1.000095262718832</v>
+        <v>0.9446735177814829</v>
       </c>
       <c r="N16">
-        <v>1.000095262718832</v>
+        <v>0.9446735177814829</v>
       </c>
       <c r="O16">
-        <v>1.000061168805968</v>
+        <v>0.9384821067803789</v>
       </c>
       <c r="P16">
-        <v>0.9999871347717578</v>
+        <v>0.9779858816782134</v>
       </c>
       <c r="Q16">
-        <v>0.999987134771758</v>
+        <v>0.9779858816782134</v>
       </c>
       <c r="R16">
-        <v>0.9999330707982208</v>
+        <v>0.9946420636265787</v>
       </c>
       <c r="S16">
-        <v>0.9999330707982208</v>
+        <v>0.9946420636265787</v>
       </c>
       <c r="T16">
-        <v>1.000036202280416</v>
+        <v>0.9951867209751275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000404034907337</v>
+        <v>1.033086987660263</v>
       </c>
       <c r="D17">
-        <v>0.999256670432634</v>
+        <v>1.066673964716734</v>
       </c>
       <c r="E17">
-        <v>1.000067383446497</v>
+        <v>0.9396354527342149</v>
       </c>
       <c r="F17">
-        <v>1.000404034907337</v>
+        <v>1.02773345760571</v>
       </c>
       <c r="G17">
-        <v>1.000129837303039</v>
+        <v>1.025530368604914</v>
       </c>
       <c r="H17">
-        <v>0.999661090977086</v>
+        <v>0.8870995204425867</v>
       </c>
       <c r="I17">
-        <v>1.000165531044686</v>
+        <v>1.033086987660263</v>
       </c>
       <c r="J17">
-        <v>0.999256670432634</v>
+        <v>0.8870995204425867</v>
       </c>
       <c r="K17">
-        <v>1.000404034907337</v>
+        <v>1.033086987660263</v>
       </c>
       <c r="L17">
-        <v>1.000067383446497</v>
+        <v>1.025530368604914</v>
       </c>
       <c r="M17">
-        <v>0.9996620269395656</v>
+        <v>0.9563149445237504</v>
       </c>
       <c r="N17">
-        <v>0.9996620269395656</v>
+        <v>0.9563149445237504</v>
       </c>
       <c r="O17">
-        <v>0.9996617149520723</v>
+        <v>0.9507551139272387</v>
       </c>
       <c r="P17">
-        <v>0.9999093629288228</v>
+        <v>0.9819056255692548</v>
       </c>
       <c r="Q17">
-        <v>0.9999093629288228</v>
+        <v>0.9819056255692548</v>
       </c>
       <c r="R17">
-        <v>1.000033030923452</v>
+        <v>0.9947009660920068</v>
       </c>
       <c r="S17">
-        <v>1.000033030923452</v>
+        <v>0.9947009660920068</v>
       </c>
       <c r="T17">
-        <v>0.9999474246852134</v>
+        <v>0.9966266252940706</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000134605519531</v>
+        <v>1.010128008256025</v>
       </c>
       <c r="D18">
-        <v>0.9981048786517669</v>
+        <v>1.045916714889045</v>
       </c>
       <c r="E18">
-        <v>1.000656189374116</v>
+        <v>0.9668328937564374</v>
       </c>
       <c r="F18">
-        <v>1.000134605519531</v>
+        <v>1.014811550848073</v>
       </c>
       <c r="G18">
-        <v>1.00181824907233</v>
+        <v>1.016738938036255</v>
       </c>
       <c r="H18">
-        <v>0.9988542990759708</v>
+        <v>0.9424985888730419</v>
       </c>
       <c r="I18">
-        <v>1.000504125813442</v>
+        <v>1.010128008256025</v>
       </c>
       <c r="J18">
-        <v>0.9981048786517669</v>
+        <v>0.9424985888730419</v>
       </c>
       <c r="K18">
-        <v>1.000134605519531</v>
+        <v>1.010128008256025</v>
       </c>
       <c r="L18">
-        <v>1.000656189374116</v>
+        <v>1.016738938036255</v>
       </c>
       <c r="M18">
-        <v>0.9993805340129414</v>
+        <v>0.9796187634546485</v>
       </c>
       <c r="N18">
-        <v>0.9993805340129414</v>
+        <v>0.9796187634546485</v>
       </c>
       <c r="O18">
-        <v>0.9992051223672845</v>
+        <v>0.9753568068885782</v>
       </c>
       <c r="P18">
-        <v>0.9996318911818047</v>
+        <v>0.9897885117217742</v>
       </c>
       <c r="Q18">
-        <v>0.9996318911818047</v>
+        <v>0.9897885117217742</v>
       </c>
       <c r="R18">
-        <v>0.9997575697662364</v>
+        <v>0.9948733858553369</v>
       </c>
       <c r="S18">
-        <v>0.9997575697662364</v>
+        <v>0.9948733858553369</v>
       </c>
       <c r="T18">
-        <v>1.00001205791786</v>
+        <v>0.9994877824431464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="D19">
+        <v>1.052388445882774</v>
+      </c>
+      <c r="E19">
+        <v>0.9635603357958128</v>
+      </c>
+      <c r="F19">
+        <v>1.016185075259416</v>
+      </c>
+      <c r="G19">
+        <v>1.01896163302704</v>
+      </c>
+      <c r="H19">
+        <v>0.9377636346414286</v>
+      </c>
+      <c r="I19">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="J19">
+        <v>0.9377636346414286</v>
+      </c>
+      <c r="K19">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="L19">
+        <v>1.01896163302704</v>
+      </c>
+      <c r="M19">
+        <v>0.9783626338342344</v>
+      </c>
+      <c r="N19">
+        <v>0.9783626338342344</v>
+      </c>
+      <c r="O19">
+        <v>0.9734285344880939</v>
+      </c>
+      <c r="P19">
+        <v>0.9887211002755111</v>
+      </c>
+      <c r="Q19">
+        <v>0.9887211002755111</v>
+      </c>
+      <c r="R19">
+        <v>0.9939003334961496</v>
+      </c>
+      <c r="S19">
+        <v>0.9939003334961496</v>
+      </c>
+      <c r="T19">
+        <v>0.9997161929607561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="D20">
+        <v>1.000270535271215</v>
+      </c>
+      <c r="E20">
+        <v>0.9999929809802389</v>
+      </c>
+      <c r="F20">
+        <v>0.9999922931157691</v>
+      </c>
+      <c r="G20">
+        <v>1.000083412734016</v>
+      </c>
+      <c r="H20">
+        <v>1.000107112703649</v>
+      </c>
+      <c r="I20">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="J20">
+        <v>1.000107112703649</v>
+      </c>
+      <c r="K20">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="L20">
+        <v>1.000083412734016</v>
+      </c>
+      <c r="M20">
+        <v>1.000095262718832</v>
+      </c>
+      <c r="N20">
+        <v>1.000095262718832</v>
+      </c>
+      <c r="O20">
+        <v>1.000061168805968</v>
+      </c>
+      <c r="P20">
+        <v>0.9999871347717578</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999871347717578</v>
+      </c>
+      <c r="R20">
+        <v>0.9999330707982206</v>
+      </c>
+      <c r="S20">
+        <v>0.9999330707982206</v>
+      </c>
+      <c r="T20">
+        <v>1.000036202280416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="D21">
+        <v>1.000129837303039</v>
+      </c>
+      <c r="E21">
+        <v>0.999661090977086</v>
+      </c>
+      <c r="F21">
+        <v>1.000165531044686</v>
+      </c>
+      <c r="G21">
+        <v>1.000067383446498</v>
+      </c>
+      <c r="H21">
+        <v>0.9992566704326337</v>
+      </c>
+      <c r="I21">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="J21">
+        <v>0.9992566704326337</v>
+      </c>
+      <c r="K21">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="L21">
+        <v>1.000067383446498</v>
+      </c>
+      <c r="M21">
+        <v>0.9996620269395657</v>
+      </c>
+      <c r="N21">
+        <v>0.9996620269395657</v>
+      </c>
+      <c r="O21">
+        <v>0.9996617149520725</v>
+      </c>
+      <c r="P21">
+        <v>0.999909362928823</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999093629288228</v>
+      </c>
+      <c r="R21">
+        <v>1.000033030923452</v>
+      </c>
+      <c r="S21">
+        <v>1.000033030923452</v>
+      </c>
+      <c r="T21">
+        <v>0.9999474246852132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="D22">
+        <v>1.00181824907233</v>
+      </c>
+      <c r="E22">
+        <v>0.9988542990759707</v>
+      </c>
+      <c r="F22">
+        <v>1.000504125813442</v>
+      </c>
+      <c r="G22">
+        <v>1.000656189374116</v>
+      </c>
+      <c r="H22">
+        <v>0.9981048786517669</v>
+      </c>
+      <c r="I22">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="J22">
+        <v>0.9981048786517669</v>
+      </c>
+      <c r="K22">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="L22">
+        <v>1.000656189374116</v>
+      </c>
+      <c r="M22">
+        <v>0.9993805340129414</v>
+      </c>
+      <c r="N22">
+        <v>0.9993805340129414</v>
+      </c>
+      <c r="O22">
+        <v>0.9992051223672845</v>
+      </c>
+      <c r="P22">
+        <v>0.9996318911818047</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996318911818046</v>
+      </c>
+      <c r="R22">
+        <v>0.9997575697662362</v>
+      </c>
+      <c r="S22">
+        <v>0.9997575697662362</v>
+      </c>
+      <c r="T22">
+        <v>1.00001205791786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.999621694016096</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.004980121698593</v>
+      </c>
+      <c r="E23">
+        <v>0.9973425736784667</v>
+      </c>
+      <c r="F23">
+        <v>1.001140827890119</v>
+      </c>
+      <c r="G23">
+        <v>1.001765988399891</v>
+      </c>
+      <c r="H23">
         <v>0.9959305140502002</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.999621694016096</v>
+      </c>
+      <c r="J23">
+        <v>0.9959305140502002</v>
+      </c>
+      <c r="K23">
+        <v>0.999621694016096</v>
+      </c>
+      <c r="L23">
         <v>1.001765988399891</v>
       </c>
-      <c r="F19">
-        <v>0.999621694016096</v>
-      </c>
-      <c r="G19">
-        <v>1.004980121698593</v>
-      </c>
-      <c r="H19">
-        <v>0.9973425736784667</v>
-      </c>
-      <c r="I19">
-        <v>1.001140827890119</v>
-      </c>
-      <c r="J19">
-        <v>0.9959305140502002</v>
-      </c>
-      <c r="K19">
-        <v>0.999621694016096</v>
-      </c>
-      <c r="L19">
-        <v>1.001765988399891</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9988482512250455</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9988482512250455</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9983463587095193</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999106065488729</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999106065488729</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9992349726205708</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9992349726205708</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000130286622227</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0023752786411</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="D3">
-        <v>1.003845358634402</v>
+        <v>1.054950553342937</v>
       </c>
       <c r="E3">
-        <v>0.9962083622953579</v>
+        <v>0.9598770629322755</v>
       </c>
       <c r="F3">
-        <v>1.001757772987087</v>
+        <v>1.017945219409217</v>
       </c>
       <c r="G3">
-        <v>1.00150365895919</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="H3">
-        <v>0.9927410062601087</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="I3">
-        <v>1.0023752786411</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="J3">
-        <v>0.9927410062601087</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="K3">
-        <v>1.0023752786411</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="L3">
-        <v>1.00150365895919</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="M3">
-        <v>0.9971223326096492</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="N3">
-        <v>0.9971223326096492</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="O3">
-        <v>0.9968176758382188</v>
+        <v>0.9700336517243033</v>
       </c>
       <c r="P3">
-        <v>0.9988733146201328</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="Q3">
-        <v>0.9988733146201328</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="R3">
-        <v>0.9997488056253747</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="S3">
-        <v>0.9997488056253747</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="T3">
-        <v>0.9997385729628743</v>
+        <v>0.9992942651008634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00461239214728</v>
+        <v>1.011236480806933</v>
       </c>
       <c r="D4">
-        <v>1.007395301358965</v>
+        <v>1.050172404595606</v>
       </c>
       <c r="E4">
-        <v>0.9926792649804023</v>
+        <v>0.9636450458097278</v>
       </c>
       <c r="F4">
-        <v>1.003394945161671</v>
+        <v>1.016242775417436</v>
       </c>
       <c r="G4">
-        <v>1.002893941360726</v>
+        <v>1.018302979856506</v>
       </c>
       <c r="H4">
-        <v>0.9859720275282761</v>
+        <v>0.9368922999664571</v>
       </c>
       <c r="I4">
-        <v>1.00461239214728</v>
+        <v>1.011236480806933</v>
       </c>
       <c r="J4">
-        <v>0.9859720275282761</v>
+        <v>0.9368922999664571</v>
       </c>
       <c r="K4">
-        <v>1.00461239214728</v>
+        <v>1.011236480806933</v>
       </c>
       <c r="L4">
-        <v>1.002893941360726</v>
+        <v>1.018302979856506</v>
       </c>
       <c r="M4">
-        <v>0.9944329844445012</v>
+        <v>0.9775976399114817</v>
       </c>
       <c r="N4">
-        <v>0.9944329844445012</v>
+        <v>0.9775976399114817</v>
       </c>
       <c r="O4">
-        <v>0.9938484112898016</v>
+        <v>0.9729467752108971</v>
       </c>
       <c r="P4">
-        <v>0.9978261203454274</v>
+        <v>0.988810586876632</v>
       </c>
       <c r="Q4">
-        <v>0.9978261203454274</v>
+        <v>0.988810586876632</v>
       </c>
       <c r="R4">
-        <v>0.9995226882958905</v>
+        <v>0.9944170603592071</v>
       </c>
       <c r="S4">
-        <v>0.9995226882958905</v>
+        <v>0.9944170603592071</v>
       </c>
       <c r="T4">
-        <v>0.9994913120895533</v>
+        <v>0.9994153310754443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008660263006518</v>
+        <v>1.015655963611864</v>
       </c>
       <c r="D5">
-        <v>1.014366112737799</v>
+        <v>1.064020913746629</v>
       </c>
       <c r="E5">
-        <v>0.9859769048233268</v>
+        <v>0.9527393626145576</v>
       </c>
       <c r="F5">
-        <v>1.006494220405977</v>
+        <v>1.021169089703506</v>
       </c>
       <c r="G5">
-        <v>1.005602843705429</v>
+        <v>1.023437863342318</v>
       </c>
       <c r="H5">
-        <v>0.973224645666281</v>
+        <v>0.917384369083557</v>
       </c>
       <c r="I5">
-        <v>1.008660263006518</v>
+        <v>1.015655963611864</v>
       </c>
       <c r="J5">
-        <v>0.973224645666281</v>
+        <v>0.917384369083557</v>
       </c>
       <c r="K5">
-        <v>1.008660263006518</v>
+        <v>1.015655963611864</v>
       </c>
       <c r="L5">
-        <v>1.005602843705429</v>
+        <v>1.023437863342318</v>
       </c>
       <c r="M5">
-        <v>0.9894137446858551</v>
+        <v>0.9704111162129377</v>
       </c>
       <c r="N5">
-        <v>0.9894137446858551</v>
+        <v>0.9704111162129377</v>
       </c>
       <c r="O5">
-        <v>0.9882681313983457</v>
+        <v>0.9645205316801443</v>
       </c>
       <c r="P5">
-        <v>0.9958292507927426</v>
+        <v>0.9854927320125798</v>
       </c>
       <c r="Q5">
-        <v>0.9958292507927426</v>
+        <v>0.9854927320125798</v>
       </c>
       <c r="R5">
-        <v>0.9990370038461864</v>
+        <v>0.9930335399124008</v>
       </c>
       <c r="S5">
-        <v>0.9990370038461864</v>
+        <v>0.9930335399124008</v>
       </c>
       <c r="T5">
-        <v>0.9990541650575552</v>
+        <v>0.9990679270170721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.012617360109366</v>
+        <v>1.018324218295455</v>
       </c>
       <c r="D6">
-        <v>1.021160168371013</v>
+        <v>1.072485279318182</v>
       </c>
       <c r="E6">
-        <v>0.9794356739506249</v>
+        <v>0.946096453068182</v>
       </c>
       <c r="F6">
-        <v>1.009519725971102</v>
+        <v>1.024168198863636</v>
       </c>
       <c r="G6">
-        <v>1.008244979249284</v>
+        <v>1.026573121818182</v>
       </c>
       <c r="H6">
-        <v>0.9607770057837598</v>
+        <v>0.9055178301704553</v>
       </c>
       <c r="I6">
-        <v>1.012617360109366</v>
+        <v>1.018324218295455</v>
       </c>
       <c r="J6">
-        <v>0.9607770057837598</v>
+        <v>0.9055178301704553</v>
       </c>
       <c r="K6">
-        <v>1.012617360109366</v>
+        <v>1.018324218295455</v>
       </c>
       <c r="L6">
-        <v>1.008244979249284</v>
+        <v>1.026573121818182</v>
       </c>
       <c r="M6">
-        <v>0.9845109925165219</v>
+        <v>0.9660454759943184</v>
       </c>
       <c r="N6">
-        <v>0.9845109925165219</v>
+        <v>0.9660454759943184</v>
       </c>
       <c r="O6">
-        <v>0.982819219661223</v>
+        <v>0.9593958016856062</v>
       </c>
       <c r="P6">
-        <v>0.9938797817141366</v>
+        <v>0.9834717234280306</v>
       </c>
       <c r="Q6">
-        <v>0.9938797817141367</v>
+        <v>0.9834717234280306</v>
       </c>
       <c r="R6">
-        <v>0.998564176312944</v>
+        <v>0.9921848471448866</v>
       </c>
       <c r="S6">
-        <v>0.998564176312944</v>
+        <v>0.9921848471448866</v>
       </c>
       <c r="T6">
-        <v>0.9986258189058582</v>
+        <v>0.9988608502556821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000077452018365</v>
+        <v>1.066332455733068</v>
       </c>
       <c r="D7">
-        <v>1.00038013711113</v>
+        <v>1.084968277946968</v>
       </c>
       <c r="E7">
-        <v>0.9997298715862371</v>
+        <v>0.9071212462448636</v>
       </c>
       <c r="F7">
-        <v>1.000120275696966</v>
+        <v>1.043448753161561</v>
       </c>
       <c r="G7">
-        <v>1.000137901466704</v>
+        <v>1.034031575361593</v>
       </c>
       <c r="H7">
-        <v>0.9995351939800953</v>
+        <v>0.8179145410140757</v>
       </c>
       <c r="I7">
-        <v>1.000077452018365</v>
+        <v>1.066332455733068</v>
       </c>
       <c r="J7">
-        <v>0.9995351939800953</v>
+        <v>0.8179145410140757</v>
       </c>
       <c r="K7">
-        <v>1.000077452018365</v>
+        <v>1.066332455733068</v>
       </c>
       <c r="L7">
-        <v>1.000137901466704</v>
+        <v>1.034031575361593</v>
       </c>
       <c r="M7">
-        <v>0.9998365477233995</v>
+        <v>0.9259730581878343</v>
       </c>
       <c r="N7">
-        <v>0.9998365477233995</v>
+        <v>0.9259730581878343</v>
       </c>
       <c r="O7">
-        <v>0.9998009890110119</v>
+        <v>0.9196891208735107</v>
       </c>
       <c r="P7">
-        <v>0.9999168491550549</v>
+        <v>0.9727595240362454</v>
       </c>
       <c r="Q7">
-        <v>0.9999168491550549</v>
+        <v>0.9727595240362454</v>
       </c>
       <c r="R7">
-        <v>0.9999569998708824</v>
+        <v>0.9961527569604509</v>
       </c>
       <c r="S7">
-        <v>0.9999569998708824</v>
+        <v>0.9961527569604509</v>
       </c>
       <c r="T7">
-        <v>0.9999968053099161</v>
+        <v>0.9923028082436883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000237077428879</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="D8">
-        <v>1.000972743138677</v>
+        <v>1.085827953909528</v>
       </c>
       <c r="E8">
-        <v>0.9992831226717243</v>
+        <v>0.9065998797135668</v>
       </c>
       <c r="F8">
-        <v>1.000320798069191</v>
+        <v>1.043674698969831</v>
       </c>
       <c r="G8">
-        <v>1.000355253926609</v>
+        <v>1.034333212009058</v>
       </c>
       <c r="H8">
-        <v>0.9987492523799008</v>
+        <v>0.8170818087847411</v>
       </c>
       <c r="I8">
-        <v>1.000237077428879</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="J8">
-        <v>0.9987492523799008</v>
+        <v>0.8170818087847411</v>
       </c>
       <c r="K8">
-        <v>1.000237077428879</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="L8">
-        <v>1.000355253926609</v>
+        <v>1.034333212009058</v>
       </c>
       <c r="M8">
-        <v>0.999552253153255</v>
+        <v>0.9257075103968998</v>
       </c>
       <c r="N8">
-        <v>0.999552253153255</v>
+        <v>0.9257075103968998</v>
       </c>
       <c r="O8">
-        <v>0.9994625429927447</v>
+        <v>0.9193383001691222</v>
       </c>
       <c r="P8">
-        <v>0.9997805279117964</v>
+        <v>0.9725964980586591</v>
       </c>
       <c r="Q8">
-        <v>0.9997805279117964</v>
+        <v>0.9725964980586591</v>
       </c>
       <c r="R8">
-        <v>0.999894665291067</v>
+        <v>0.9960409918895389</v>
       </c>
       <c r="S8">
-        <v>0.999894665291067</v>
+        <v>0.9960409918895389</v>
       </c>
       <c r="T8">
-        <v>0.999986374602497</v>
+        <v>0.9923153377948171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000385819517056</v>
+        <v>1.066289323045226</v>
       </c>
       <c r="D9">
-        <v>1.001277190014584</v>
+        <v>1.086726255905218</v>
       </c>
       <c r="E9">
-        <v>0.9990099308280531</v>
+        <v>0.9061381069242351</v>
       </c>
       <c r="F9">
-        <v>1.000445883392576</v>
+        <v>1.043869352671465</v>
       </c>
       <c r="G9">
-        <v>1.000470603198203</v>
+        <v>1.034643011387454</v>
       </c>
       <c r="H9">
-        <v>0.9982417571644624</v>
+        <v>0.8164052955040851</v>
       </c>
       <c r="I9">
-        <v>1.000385819517056</v>
+        <v>1.066289323045226</v>
       </c>
       <c r="J9">
-        <v>0.9982417571644624</v>
+        <v>0.8164052955040851</v>
       </c>
       <c r="K9">
-        <v>1.000385819517056</v>
+        <v>1.066289323045226</v>
       </c>
       <c r="L9">
-        <v>1.000470603198203</v>
+        <v>1.034643011387454</v>
       </c>
       <c r="M9">
-        <v>0.9993561801813329</v>
+        <v>0.9255241534457697</v>
       </c>
       <c r="N9">
-        <v>0.9993561801813329</v>
+        <v>0.9255241534457697</v>
       </c>
       <c r="O9">
-        <v>0.9992407637302397</v>
+        <v>0.9190621379385915</v>
       </c>
       <c r="P9">
-        <v>0.9996993932932404</v>
+        <v>0.9724458766455886</v>
       </c>
       <c r="Q9">
-        <v>0.9996993932932404</v>
+        <v>0.9724458766455886</v>
       </c>
       <c r="R9">
-        <v>0.9998709998491943</v>
+        <v>0.995906738245498</v>
       </c>
       <c r="S9">
-        <v>0.9998709998491943</v>
+        <v>0.995906738245498</v>
       </c>
       <c r="T9">
-        <v>0.9999718640191558</v>
+        <v>0.9923452242396138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000761618794075</v>
+        <v>1.066631751074588</v>
       </c>
       <c r="D10">
-        <v>1.002849235094913</v>
+        <v>1.087938274285001</v>
       </c>
       <c r="E10">
-        <v>0.9978565472289913</v>
+        <v>0.9052212155907415</v>
       </c>
       <c r="F10">
-        <v>1.000961596883745</v>
+        <v>1.044278563689907</v>
       </c>
       <c r="G10">
-        <v>1.001043896693934</v>
+        <v>1.035079705181359</v>
       </c>
       <c r="H10">
-        <v>0.9962335411765666</v>
+        <v>0.8148079571875564</v>
       </c>
       <c r="I10">
-        <v>1.000761618794075</v>
+        <v>1.066631751074588</v>
       </c>
       <c r="J10">
-        <v>0.9962335411765666</v>
+        <v>0.8148079571875564</v>
       </c>
       <c r="K10">
-        <v>1.000761618794075</v>
+        <v>1.066631751074588</v>
       </c>
       <c r="L10">
-        <v>1.001043896693934</v>
+        <v>1.035079705181359</v>
       </c>
       <c r="M10">
-        <v>0.9986387189352504</v>
+        <v>0.9249438311844576</v>
       </c>
       <c r="N10">
-        <v>0.9986387189352504</v>
+        <v>0.9249438311844576</v>
       </c>
       <c r="O10">
-        <v>0.9983779950331639</v>
+        <v>0.9183696259865523</v>
       </c>
       <c r="P10">
-        <v>0.9993463522215252</v>
+        <v>0.9721731378145009</v>
       </c>
       <c r="Q10">
-        <v>0.9993463522215252</v>
+        <v>0.9721731378145009</v>
       </c>
       <c r="R10">
-        <v>0.9997001688646627</v>
+        <v>0.9957877911295225</v>
       </c>
       <c r="S10">
-        <v>0.9997001688646627</v>
+        <v>0.9957877911295225</v>
       </c>
       <c r="T10">
-        <v>0.9999510726453708</v>
+        <v>0.9923262445015254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001426611340561</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="D11">
-        <v>1.004533828441944</v>
+        <v>1.00439315918221</v>
       </c>
       <c r="E11">
-        <v>0.9964489136067801</v>
+        <v>0.9955772725437189</v>
       </c>
       <c r="F11">
-        <v>1.001600974995179</v>
+        <v>1.002053536191132</v>
       </c>
       <c r="G11">
-        <v>1.001672727080398</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="H11">
-        <v>0.9936738461471508</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="I11">
-        <v>1.001426611340561</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="J11">
-        <v>0.9936738461471508</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="K11">
-        <v>1.001426611340561</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="L11">
-        <v>1.001672727080398</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="M11">
-        <v>0.9976732866137746</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="N11">
-        <v>0.9976732866137746</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="O11">
-        <v>0.9972651622781098</v>
+        <v>0.9962653358644037</v>
       </c>
       <c r="P11">
-        <v>0.9989243948560368</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="Q11">
-        <v>0.9989243948560368</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="R11">
-        <v>0.9995499489771679</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="S11">
-        <v>0.9995499489771679</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="T11">
-        <v>0.9998928169353355</v>
+        <v>0.9996829878937518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9891261156197422</v>
+        <v>1.001482354025651</v>
       </c>
       <c r="D12">
-        <v>0.9446912132375229</v>
+        <v>1.002315514729603</v>
       </c>
       <c r="E12">
-        <v>1.038768516182305</v>
+        <v>0.9976820406021046</v>
       </c>
       <c r="F12">
-        <v>0.9828655059055107</v>
+        <v>1.001076285651665</v>
       </c>
       <c r="G12">
-        <v>0.9802891304142625</v>
+        <v>1.000909182424741</v>
       </c>
       <c r="H12">
-        <v>1.065687611343511</v>
+        <v>0.9955445562649216</v>
       </c>
       <c r="I12">
-        <v>0.9891261156197422</v>
+        <v>1.001482354025651</v>
       </c>
       <c r="J12">
-        <v>1.065687611343511</v>
+        <v>0.9955445562649216</v>
       </c>
       <c r="K12">
-        <v>0.9891261156197422</v>
+        <v>1.001482354025651</v>
       </c>
       <c r="L12">
-        <v>0.9802891304142625</v>
+        <v>1.000909182424741</v>
       </c>
       <c r="M12">
-        <v>1.022988370878887</v>
+        <v>0.9982268693448315</v>
       </c>
       <c r="N12">
-        <v>1.022988370878887</v>
+        <v>0.9982268693448315</v>
       </c>
       <c r="O12">
-        <v>1.02824841931336</v>
+        <v>0.9980452597639226</v>
       </c>
       <c r="P12">
-        <v>1.011700952459172</v>
+        <v>0.9993120309051048</v>
       </c>
       <c r="Q12">
-        <v>1.011700952459172</v>
+        <v>0.9993120309051046</v>
       </c>
       <c r="R12">
-        <v>1.006057243249314</v>
+        <v>0.9998546116852413</v>
       </c>
       <c r="S12">
-        <v>1.006057243249314</v>
+        <v>0.9998546116852413</v>
       </c>
       <c r="T12">
-        <v>1.000238015450476</v>
+        <v>0.9998349889497812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9927659664095386</v>
+        <v>1.005025252295855</v>
       </c>
       <c r="D13">
-        <v>0.991457346216166</v>
+        <v>1.007584632698723</v>
       </c>
       <c r="E13">
-        <v>1.010102917857146</v>
+        <v>0.9922920496297402</v>
       </c>
       <c r="F13">
-        <v>0.9951083754200345</v>
+        <v>1.003585180722038</v>
       </c>
       <c r="G13">
-        <v>0.9960723305446388</v>
+        <v>1.002992559077918</v>
       </c>
       <c r="H13">
-        <v>1.021084726870479</v>
+        <v>0.9851217365901666</v>
       </c>
       <c r="I13">
-        <v>0.9927659664095386</v>
+        <v>1.005025252295855</v>
       </c>
       <c r="J13">
-        <v>1.021084726870479</v>
+        <v>0.9851217365901666</v>
       </c>
       <c r="K13">
-        <v>0.9927659664095386</v>
+        <v>1.005025252295855</v>
       </c>
       <c r="L13">
-        <v>0.9960723305446388</v>
+        <v>1.002992559077918</v>
       </c>
       <c r="M13">
-        <v>1.008578528707559</v>
+        <v>0.9940571478340423</v>
       </c>
       <c r="N13">
-        <v>1.008578528707559</v>
+        <v>0.9940571478340423</v>
       </c>
       <c r="O13">
-        <v>1.009086658424088</v>
+        <v>0.9934687817659417</v>
       </c>
       <c r="P13">
-        <v>1.003307674608219</v>
+        <v>0.9977131826546465</v>
       </c>
       <c r="Q13">
-        <v>1.003307674608219</v>
+        <v>0.9977131826546465</v>
       </c>
       <c r="R13">
-        <v>1.000672247558549</v>
+        <v>0.9995412000649485</v>
       </c>
       <c r="S13">
-        <v>1.000672247558549</v>
+        <v>0.9995412000649485</v>
       </c>
       <c r="T13">
-        <v>1.001098610553001</v>
+        <v>0.9994335685024067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9565558125374185</v>
+        <v>1.006524848103693</v>
       </c>
       <c r="D14">
-        <v>0.8865750126537043</v>
+        <v>1.010857403709002</v>
       </c>
       <c r="E14">
-        <v>1.094569509018459</v>
+        <v>0.9894153750606363</v>
       </c>
       <c r="F14">
-        <v>0.9568255160372351</v>
+        <v>1.004901170028877</v>
       </c>
       <c r="G14">
-        <v>0.9569365107262972</v>
+        <v>1.004232995055717</v>
       </c>
       <c r="H14">
-        <v>1.173467059371904</v>
+        <v>0.9797969262079489</v>
       </c>
       <c r="I14">
-        <v>0.9565558125374185</v>
+        <v>1.006524848103693</v>
       </c>
       <c r="J14">
-        <v>1.173467059371904</v>
+        <v>0.9797969262079489</v>
       </c>
       <c r="K14">
-        <v>0.9565558125374185</v>
+        <v>1.006524848103693</v>
       </c>
       <c r="L14">
-        <v>0.9569365107262972</v>
+        <v>1.004232995055717</v>
       </c>
       <c r="M14">
-        <v>1.0652017850491</v>
+        <v>0.992014960631833</v>
       </c>
       <c r="N14">
-        <v>1.0652017850491</v>
+        <v>0.992014960631833</v>
       </c>
       <c r="O14">
-        <v>1.07499102637222</v>
+        <v>0.9911484321081008</v>
       </c>
       <c r="P14">
-        <v>1.02898646087854</v>
+        <v>0.9968515897891196</v>
       </c>
       <c r="Q14">
-        <v>1.02898646087854</v>
+        <v>0.9968515897891196</v>
       </c>
       <c r="R14">
-        <v>1.010878798793259</v>
+        <v>0.9992699043677629</v>
       </c>
       <c r="S14">
-        <v>1.010878798793259</v>
+        <v>0.9992699043677629</v>
       </c>
       <c r="T14">
-        <v>1.004154903390836</v>
+        <v>0.9992881196943123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9881400096302552</v>
+        <v>1.0023752786411</v>
       </c>
       <c r="D15">
-        <v>0.969129600173114</v>
+        <v>1.003845358634402</v>
       </c>
       <c r="E15">
-        <v>1.025175499027671</v>
+        <v>0.9962083622953579</v>
       </c>
       <c r="F15">
-        <v>0.988737009118141</v>
+        <v>1.001757772987087</v>
       </c>
       <c r="G15">
-        <v>0.9889826844603619</v>
+        <v>1.00150365895919</v>
       </c>
       <c r="H15">
-        <v>1.04444737005346</v>
+        <v>0.9927410062601087</v>
       </c>
       <c r="I15">
-        <v>0.9881400096302552</v>
+        <v>1.0023752786411</v>
       </c>
       <c r="J15">
-        <v>1.04444737005346</v>
+        <v>0.9927410062601087</v>
       </c>
       <c r="K15">
-        <v>0.9881400096302552</v>
+        <v>1.0023752786411</v>
       </c>
       <c r="L15">
-        <v>0.9889826844603619</v>
+        <v>1.00150365895919</v>
       </c>
       <c r="M15">
-        <v>1.016715027256911</v>
+        <v>0.9971223326096492</v>
       </c>
       <c r="N15">
-        <v>1.016715027256911</v>
+        <v>0.9971223326096492</v>
       </c>
       <c r="O15">
-        <v>1.019535184513831</v>
+        <v>0.9968176758382188</v>
       </c>
       <c r="P15">
-        <v>1.007190021381359</v>
+        <v>0.9988733146201328</v>
       </c>
       <c r="Q15">
-        <v>1.007190021381359</v>
+        <v>0.9988733146201328</v>
       </c>
       <c r="R15">
-        <v>1.002427518443583</v>
+        <v>0.9997488056253747</v>
       </c>
       <c r="S15">
-        <v>1.002427518443583</v>
+        <v>0.9997488056253747</v>
       </c>
       <c r="T15">
-        <v>1.000768695410501</v>
+        <v>0.9997385729628743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.044610609471675</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="D16">
-        <v>1.076893724163471</v>
+        <v>1.007395301358965</v>
       </c>
       <c r="E16">
-        <v>0.9260992847781709</v>
+        <v>0.9926792649804023</v>
       </c>
       <c r="F16">
-        <v>1.034169671874483</v>
+        <v>1.003394945161671</v>
       </c>
       <c r="G16">
-        <v>1.029873003672143</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="H16">
-        <v>0.8594740318908226</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="I16">
-        <v>1.044610609471675</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="J16">
-        <v>0.8594740318908226</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="K16">
-        <v>1.044610609471675</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="L16">
-        <v>1.029873003672143</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="M16">
-        <v>0.9446735177814829</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="N16">
-        <v>0.9446735177814829</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="O16">
-        <v>0.9384821067803789</v>
+        <v>0.9938484112898016</v>
       </c>
       <c r="P16">
-        <v>0.9779858816782134</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="Q16">
-        <v>0.9779858816782134</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="R16">
-        <v>0.9946420636265787</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="S16">
-        <v>0.9946420636265787</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="T16">
-        <v>0.9951867209751275</v>
+        <v>0.9994913120895533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.033086987660263</v>
+        <v>1.008660263006518</v>
       </c>
       <c r="D17">
-        <v>1.066673964716734</v>
+        <v>1.014366112737799</v>
       </c>
       <c r="E17">
-        <v>0.9396354527342149</v>
+        <v>0.9859769048233268</v>
       </c>
       <c r="F17">
-        <v>1.02773345760571</v>
+        <v>1.006494220405977</v>
       </c>
       <c r="G17">
-        <v>1.025530368604914</v>
+        <v>1.005602843705429</v>
       </c>
       <c r="H17">
-        <v>0.8870995204425867</v>
+        <v>0.973224645666281</v>
       </c>
       <c r="I17">
-        <v>1.033086987660263</v>
+        <v>1.008660263006518</v>
       </c>
       <c r="J17">
-        <v>0.8870995204425867</v>
+        <v>0.973224645666281</v>
       </c>
       <c r="K17">
-        <v>1.033086987660263</v>
+        <v>1.008660263006518</v>
       </c>
       <c r="L17">
-        <v>1.025530368604914</v>
+        <v>1.005602843705429</v>
       </c>
       <c r="M17">
-        <v>0.9563149445237504</v>
+        <v>0.9894137446858551</v>
       </c>
       <c r="N17">
-        <v>0.9563149445237504</v>
+        <v>0.9894137446858551</v>
       </c>
       <c r="O17">
-        <v>0.9507551139272387</v>
+        <v>0.9882681313983457</v>
       </c>
       <c r="P17">
-        <v>0.9819056255692548</v>
+        <v>0.9958292507927426</v>
       </c>
       <c r="Q17">
-        <v>0.9819056255692548</v>
+        <v>0.9958292507927426</v>
       </c>
       <c r="R17">
-        <v>0.9947009660920068</v>
+        <v>0.9990370038461864</v>
       </c>
       <c r="S17">
-        <v>0.9947009660920068</v>
+        <v>0.9990370038461864</v>
       </c>
       <c r="T17">
-        <v>0.9966266252940706</v>
+        <v>0.9990541650575552</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010128008256025</v>
+        <v>1.012617360109366</v>
       </c>
       <c r="D18">
-        <v>1.045916714889045</v>
+        <v>1.021160168371013</v>
       </c>
       <c r="E18">
-        <v>0.9668328937564374</v>
+        <v>0.9794356739506249</v>
       </c>
       <c r="F18">
-        <v>1.014811550848073</v>
+        <v>1.009519725971102</v>
       </c>
       <c r="G18">
-        <v>1.016738938036255</v>
+        <v>1.008244979249284</v>
       </c>
       <c r="H18">
-        <v>0.9424985888730419</v>
+        <v>0.9607770057837598</v>
       </c>
       <c r="I18">
-        <v>1.010128008256025</v>
+        <v>1.012617360109366</v>
       </c>
       <c r="J18">
-        <v>0.9424985888730419</v>
+        <v>0.9607770057837598</v>
       </c>
       <c r="K18">
-        <v>1.010128008256025</v>
+        <v>1.012617360109366</v>
       </c>
       <c r="L18">
-        <v>1.016738938036255</v>
+        <v>1.008244979249284</v>
       </c>
       <c r="M18">
-        <v>0.9796187634546485</v>
+        <v>0.9845109925165219</v>
       </c>
       <c r="N18">
-        <v>0.9796187634546485</v>
+        <v>0.9845109925165219</v>
       </c>
       <c r="O18">
-        <v>0.9753568068885782</v>
+        <v>0.982819219661223</v>
       </c>
       <c r="P18">
-        <v>0.9897885117217742</v>
+        <v>0.9938797817141366</v>
       </c>
       <c r="Q18">
-        <v>0.9897885117217742</v>
+        <v>0.9938797817141367</v>
       </c>
       <c r="R18">
-        <v>0.9948733858553369</v>
+        <v>0.998564176312944</v>
       </c>
       <c r="S18">
-        <v>0.9948733858553369</v>
+        <v>0.998564176312944</v>
       </c>
       <c r="T18">
-        <v>0.9994877824431464</v>
+        <v>0.9986258189058582</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.009438033158065</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="D19">
-        <v>1.052388445882774</v>
+        <v>1.00038013711113</v>
       </c>
       <c r="E19">
-        <v>0.9635603357958128</v>
+        <v>0.9997298715862371</v>
       </c>
       <c r="F19">
-        <v>1.016185075259416</v>
+        <v>1.000120275696966</v>
       </c>
       <c r="G19">
-        <v>1.01896163302704</v>
+        <v>1.000137901466704</v>
       </c>
       <c r="H19">
-        <v>0.9377636346414286</v>
+        <v>0.9995351939800953</v>
       </c>
       <c r="I19">
-        <v>1.009438033158065</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="J19">
-        <v>0.9377636346414286</v>
+        <v>0.9995351939800953</v>
       </c>
       <c r="K19">
-        <v>1.009438033158065</v>
+        <v>1.000077452018365</v>
       </c>
       <c r="L19">
-        <v>1.01896163302704</v>
+        <v>1.000137901466704</v>
       </c>
       <c r="M19">
-        <v>0.9783626338342344</v>
+        <v>0.9998365477233995</v>
       </c>
       <c r="N19">
-        <v>0.9783626338342344</v>
+        <v>0.9998365477233995</v>
       </c>
       <c r="O19">
-        <v>0.9734285344880939</v>
+        <v>0.9998009890110119</v>
       </c>
       <c r="P19">
-        <v>0.9887211002755111</v>
+        <v>0.9999168491550549</v>
       </c>
       <c r="Q19">
-        <v>0.9887211002755111</v>
+        <v>0.9999168491550549</v>
       </c>
       <c r="R19">
-        <v>0.9939003334961496</v>
+        <v>0.9999569998708824</v>
       </c>
       <c r="S19">
-        <v>0.9939003334961496</v>
+        <v>0.9999569998708824</v>
       </c>
       <c r="T19">
-        <v>0.9997161929607561</v>
+        <v>0.9999968053099161</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.999770878877609</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="D20">
-        <v>1.000270535271215</v>
+        <v>1.000972743138677</v>
       </c>
       <c r="E20">
-        <v>0.9999929809802389</v>
+        <v>0.9992831226717243</v>
       </c>
       <c r="F20">
-        <v>0.9999922931157691</v>
+        <v>1.000320798069191</v>
       </c>
       <c r="G20">
-        <v>1.000083412734016</v>
+        <v>1.000355253926609</v>
       </c>
       <c r="H20">
-        <v>1.000107112703649</v>
+        <v>0.9987492523799008</v>
       </c>
       <c r="I20">
-        <v>0.999770878877609</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="J20">
-        <v>1.000107112703649</v>
+        <v>0.9987492523799008</v>
       </c>
       <c r="K20">
-        <v>0.999770878877609</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="L20">
-        <v>1.000083412734016</v>
+        <v>1.000355253926609</v>
       </c>
       <c r="M20">
-        <v>1.000095262718832</v>
+        <v>0.999552253153255</v>
       </c>
       <c r="N20">
-        <v>1.000095262718832</v>
+        <v>0.999552253153255</v>
       </c>
       <c r="O20">
-        <v>1.000061168805968</v>
+        <v>0.9994625429927447</v>
       </c>
       <c r="P20">
-        <v>0.9999871347717578</v>
+        <v>0.9997805279117964</v>
       </c>
       <c r="Q20">
-        <v>0.9999871347717578</v>
+        <v>0.9997805279117964</v>
       </c>
       <c r="R20">
-        <v>0.9999330707982206</v>
+        <v>0.999894665291067</v>
       </c>
       <c r="S20">
-        <v>0.9999330707982206</v>
+        <v>0.999894665291067</v>
       </c>
       <c r="T20">
-        <v>1.000036202280416</v>
+        <v>0.999986374602497</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000404034907337</v>
+        <v>1.000385819517056</v>
       </c>
       <c r="D21">
-        <v>1.000129837303039</v>
+        <v>1.001277190014584</v>
       </c>
       <c r="E21">
-        <v>0.999661090977086</v>
+        <v>0.9990099308280531</v>
       </c>
       <c r="F21">
-        <v>1.000165531044686</v>
+        <v>1.000445883392576</v>
       </c>
       <c r="G21">
-        <v>1.000067383446498</v>
+        <v>1.000470603198203</v>
       </c>
       <c r="H21">
-        <v>0.9992566704326337</v>
+        <v>0.9982417571644624</v>
       </c>
       <c r="I21">
-        <v>1.000404034907337</v>
+        <v>1.000385819517056</v>
       </c>
       <c r="J21">
-        <v>0.9992566704326337</v>
+        <v>0.9982417571644624</v>
       </c>
       <c r="K21">
-        <v>1.000404034907337</v>
+        <v>1.000385819517056</v>
       </c>
       <c r="L21">
-        <v>1.000067383446498</v>
+        <v>1.000470603198203</v>
       </c>
       <c r="M21">
-        <v>0.9996620269395657</v>
+        <v>0.9993561801813329</v>
       </c>
       <c r="N21">
-        <v>0.9996620269395657</v>
+        <v>0.9993561801813329</v>
       </c>
       <c r="O21">
-        <v>0.9996617149520725</v>
+        <v>0.9992407637302397</v>
       </c>
       <c r="P21">
-        <v>0.999909362928823</v>
+        <v>0.9996993932932404</v>
       </c>
       <c r="Q21">
-        <v>0.9999093629288228</v>
+        <v>0.9996993932932404</v>
       </c>
       <c r="R21">
-        <v>1.000033030923452</v>
+        <v>0.9998709998491943</v>
       </c>
       <c r="S21">
-        <v>1.000033030923452</v>
+        <v>0.9998709998491943</v>
       </c>
       <c r="T21">
-        <v>0.9999474246852132</v>
+        <v>0.9999718640191558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000134605519531</v>
+        <v>1.000761618794075</v>
       </c>
       <c r="D22">
-        <v>1.00181824907233</v>
+        <v>1.002849235094913</v>
       </c>
       <c r="E22">
-        <v>0.9988542990759707</v>
+        <v>0.9978565472289913</v>
       </c>
       <c r="F22">
-        <v>1.000504125813442</v>
+        <v>1.000961596883745</v>
       </c>
       <c r="G22">
-        <v>1.000656189374116</v>
+        <v>1.001043896693934</v>
       </c>
       <c r="H22">
-        <v>0.9981048786517669</v>
+        <v>0.9962335411765666</v>
       </c>
       <c r="I22">
-        <v>1.000134605519531</v>
+        <v>1.000761618794075</v>
       </c>
       <c r="J22">
-        <v>0.9981048786517669</v>
+        <v>0.9962335411765666</v>
       </c>
       <c r="K22">
-        <v>1.000134605519531</v>
+        <v>1.000761618794075</v>
       </c>
       <c r="L22">
-        <v>1.000656189374116</v>
+        <v>1.001043896693934</v>
       </c>
       <c r="M22">
-        <v>0.9993805340129414</v>
+        <v>0.9986387189352504</v>
       </c>
       <c r="N22">
-        <v>0.9993805340129414</v>
+        <v>0.9986387189352504</v>
       </c>
       <c r="O22">
-        <v>0.9992051223672845</v>
+        <v>0.9983779950331639</v>
       </c>
       <c r="P22">
-        <v>0.9996318911818047</v>
+        <v>0.9993463522215252</v>
       </c>
       <c r="Q22">
-        <v>0.9996318911818046</v>
+        <v>0.9993463522215252</v>
       </c>
       <c r="R22">
-        <v>0.9997575697662362</v>
+        <v>0.9997001688646627</v>
       </c>
       <c r="S22">
-        <v>0.9997575697662362</v>
+        <v>0.9997001688646627</v>
       </c>
       <c r="T22">
-        <v>1.00001205791786</v>
+        <v>0.9999510726453708</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001426611340561</v>
+      </c>
+      <c r="D23">
+        <v>1.004533828441944</v>
+      </c>
+      <c r="E23">
+        <v>0.9964489136067801</v>
+      </c>
+      <c r="F23">
+        <v>1.001600974995179</v>
+      </c>
+      <c r="G23">
+        <v>1.001672727080398</v>
+      </c>
+      <c r="H23">
+        <v>0.9936738461471508</v>
+      </c>
+      <c r="I23">
+        <v>1.001426611340561</v>
+      </c>
+      <c r="J23">
+        <v>0.9936738461471508</v>
+      </c>
+      <c r="K23">
+        <v>1.001426611340561</v>
+      </c>
+      <c r="L23">
+        <v>1.001672727080398</v>
+      </c>
+      <c r="M23">
+        <v>0.9976732866137746</v>
+      </c>
+      <c r="N23">
+        <v>0.9976732866137746</v>
+      </c>
+      <c r="O23">
+        <v>0.9972651622781098</v>
+      </c>
+      <c r="P23">
+        <v>0.9989243948560368</v>
+      </c>
+      <c r="Q23">
+        <v>0.9989243948560368</v>
+      </c>
+      <c r="R23">
+        <v>0.9995499489771679</v>
+      </c>
+      <c r="S23">
+        <v>0.9995499489771679</v>
+      </c>
+      <c r="T23">
+        <v>0.9998928169353355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="D24">
+        <v>0.9446912132375229</v>
+      </c>
+      <c r="E24">
+        <v>1.038768516182305</v>
+      </c>
+      <c r="F24">
+        <v>0.9828655059055107</v>
+      </c>
+      <c r="G24">
+        <v>0.9802891304142625</v>
+      </c>
+      <c r="H24">
+        <v>1.065687611343511</v>
+      </c>
+      <c r="I24">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="J24">
+        <v>1.065687611343511</v>
+      </c>
+      <c r="K24">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="L24">
+        <v>0.9802891304142625</v>
+      </c>
+      <c r="M24">
+        <v>1.022988370878887</v>
+      </c>
+      <c r="N24">
+        <v>1.022988370878887</v>
+      </c>
+      <c r="O24">
+        <v>1.02824841931336</v>
+      </c>
+      <c r="P24">
+        <v>1.011700952459172</v>
+      </c>
+      <c r="Q24">
+        <v>1.011700952459172</v>
+      </c>
+      <c r="R24">
+        <v>1.006057243249314</v>
+      </c>
+      <c r="S24">
+        <v>1.006057243249314</v>
+      </c>
+      <c r="T24">
+        <v>1.000238015450476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="D25">
+        <v>0.991457346216166</v>
+      </c>
+      <c r="E25">
+        <v>1.010102917857146</v>
+      </c>
+      <c r="F25">
+        <v>0.9951083754200345</v>
+      </c>
+      <c r="G25">
+        <v>0.9960723305446388</v>
+      </c>
+      <c r="H25">
+        <v>1.021084726870479</v>
+      </c>
+      <c r="I25">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="J25">
+        <v>1.021084726870479</v>
+      </c>
+      <c r="K25">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="L25">
+        <v>0.9960723305446388</v>
+      </c>
+      <c r="M25">
+        <v>1.008578528707559</v>
+      </c>
+      <c r="N25">
+        <v>1.008578528707559</v>
+      </c>
+      <c r="O25">
+        <v>1.009086658424088</v>
+      </c>
+      <c r="P25">
+        <v>1.003307674608219</v>
+      </c>
+      <c r="Q25">
+        <v>1.003307674608219</v>
+      </c>
+      <c r="R25">
+        <v>1.000672247558549</v>
+      </c>
+      <c r="S25">
+        <v>1.000672247558549</v>
+      </c>
+      <c r="T25">
+        <v>1.001098610553001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="D26">
+        <v>0.8865750126537043</v>
+      </c>
+      <c r="E26">
+        <v>1.094569509018459</v>
+      </c>
+      <c r="F26">
+        <v>0.9568255160372351</v>
+      </c>
+      <c r="G26">
+        <v>0.9569365107262972</v>
+      </c>
+      <c r="H26">
+        <v>1.173467059371904</v>
+      </c>
+      <c r="I26">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="J26">
+        <v>1.173467059371904</v>
+      </c>
+      <c r="K26">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="L26">
+        <v>0.9569365107262972</v>
+      </c>
+      <c r="M26">
+        <v>1.0652017850491</v>
+      </c>
+      <c r="N26">
+        <v>1.0652017850491</v>
+      </c>
+      <c r="O26">
+        <v>1.07499102637222</v>
+      </c>
+      <c r="P26">
+        <v>1.02898646087854</v>
+      </c>
+      <c r="Q26">
+        <v>1.02898646087854</v>
+      </c>
+      <c r="R26">
+        <v>1.010878798793259</v>
+      </c>
+      <c r="S26">
+        <v>1.010878798793259</v>
+      </c>
+      <c r="T26">
+        <v>1.004154903390836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="D27">
+        <v>0.969129600173114</v>
+      </c>
+      <c r="E27">
+        <v>1.025175499027671</v>
+      </c>
+      <c r="F27">
+        <v>0.988737009118141</v>
+      </c>
+      <c r="G27">
+        <v>0.9889826844603619</v>
+      </c>
+      <c r="H27">
+        <v>1.04444737005346</v>
+      </c>
+      <c r="I27">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="J27">
+        <v>1.04444737005346</v>
+      </c>
+      <c r="K27">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="L27">
+        <v>0.9889826844603619</v>
+      </c>
+      <c r="M27">
+        <v>1.016715027256911</v>
+      </c>
+      <c r="N27">
+        <v>1.016715027256911</v>
+      </c>
+      <c r="O27">
+        <v>1.019535184513831</v>
+      </c>
+      <c r="P27">
+        <v>1.007190021381359</v>
+      </c>
+      <c r="Q27">
+        <v>1.007190021381359</v>
+      </c>
+      <c r="R27">
+        <v>1.002427518443583</v>
+      </c>
+      <c r="S27">
+        <v>1.002427518443583</v>
+      </c>
+      <c r="T27">
+        <v>1.000768695410501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.044610609471675</v>
+      </c>
+      <c r="D28">
+        <v>1.076893724163471</v>
+      </c>
+      <c r="E28">
+        <v>0.9260992847781709</v>
+      </c>
+      <c r="F28">
+        <v>1.034169671874483</v>
+      </c>
+      <c r="G28">
+        <v>1.029873003672143</v>
+      </c>
+      <c r="H28">
+        <v>0.8594740318908226</v>
+      </c>
+      <c r="I28">
+        <v>1.044610609471675</v>
+      </c>
+      <c r="J28">
+        <v>0.8594740318908226</v>
+      </c>
+      <c r="K28">
+        <v>1.044610609471675</v>
+      </c>
+      <c r="L28">
+        <v>1.029873003672143</v>
+      </c>
+      <c r="M28">
+        <v>0.9446735177814829</v>
+      </c>
+      <c r="N28">
+        <v>0.9446735177814829</v>
+      </c>
+      <c r="O28">
+        <v>0.9384821067803789</v>
+      </c>
+      <c r="P28">
+        <v>0.9779858816782134</v>
+      </c>
+      <c r="Q28">
+        <v>0.9779858816782134</v>
+      </c>
+      <c r="R28">
+        <v>0.9946420636265787</v>
+      </c>
+      <c r="S28">
+        <v>0.9946420636265787</v>
+      </c>
+      <c r="T28">
+        <v>0.9951867209751275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.033086987660263</v>
+      </c>
+      <c r="D29">
+        <v>1.066673964716734</v>
+      </c>
+      <c r="E29">
+        <v>0.9396354527342149</v>
+      </c>
+      <c r="F29">
+        <v>1.02773345760571</v>
+      </c>
+      <c r="G29">
+        <v>1.025530368604914</v>
+      </c>
+      <c r="H29">
+        <v>0.8870995204425867</v>
+      </c>
+      <c r="I29">
+        <v>1.033086987660263</v>
+      </c>
+      <c r="J29">
+        <v>0.8870995204425867</v>
+      </c>
+      <c r="K29">
+        <v>1.033086987660263</v>
+      </c>
+      <c r="L29">
+        <v>1.025530368604914</v>
+      </c>
+      <c r="M29">
+        <v>0.9563149445237504</v>
+      </c>
+      <c r="N29">
+        <v>0.9563149445237504</v>
+      </c>
+      <c r="O29">
+        <v>0.9507551139272387</v>
+      </c>
+      <c r="P29">
+        <v>0.9819056255692548</v>
+      </c>
+      <c r="Q29">
+        <v>0.9819056255692548</v>
+      </c>
+      <c r="R29">
+        <v>0.9947009660920068</v>
+      </c>
+      <c r="S29">
+        <v>0.9947009660920068</v>
+      </c>
+      <c r="T29">
+        <v>0.9966266252940706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.010128008256025</v>
+      </c>
+      <c r="D30">
+        <v>1.045916714889045</v>
+      </c>
+      <c r="E30">
+        <v>0.9668328937564374</v>
+      </c>
+      <c r="F30">
+        <v>1.014811550848073</v>
+      </c>
+      <c r="G30">
+        <v>1.016738938036255</v>
+      </c>
+      <c r="H30">
+        <v>0.9424985888730419</v>
+      </c>
+      <c r="I30">
+        <v>1.010128008256025</v>
+      </c>
+      <c r="J30">
+        <v>0.9424985888730419</v>
+      </c>
+      <c r="K30">
+        <v>1.010128008256025</v>
+      </c>
+      <c r="L30">
+        <v>1.016738938036255</v>
+      </c>
+      <c r="M30">
+        <v>0.9796187634546485</v>
+      </c>
+      <c r="N30">
+        <v>0.9796187634546485</v>
+      </c>
+      <c r="O30">
+        <v>0.9753568068885782</v>
+      </c>
+      <c r="P30">
+        <v>0.9897885117217742</v>
+      </c>
+      <c r="Q30">
+        <v>0.9897885117217742</v>
+      </c>
+      <c r="R30">
+        <v>0.9948733858553369</v>
+      </c>
+      <c r="S30">
+        <v>0.9948733858553369</v>
+      </c>
+      <c r="T30">
+        <v>0.9994877824431464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="D31">
+        <v>1.052388445882774</v>
+      </c>
+      <c r="E31">
+        <v>0.9635603357958128</v>
+      </c>
+      <c r="F31">
+        <v>1.016185075259416</v>
+      </c>
+      <c r="G31">
+        <v>1.01896163302704</v>
+      </c>
+      <c r="H31">
+        <v>0.9377636346414286</v>
+      </c>
+      <c r="I31">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="J31">
+        <v>0.9377636346414286</v>
+      </c>
+      <c r="K31">
+        <v>1.009438033158065</v>
+      </c>
+      <c r="L31">
+        <v>1.01896163302704</v>
+      </c>
+      <c r="M31">
+        <v>0.9783626338342344</v>
+      </c>
+      <c r="N31">
+        <v>0.9783626338342344</v>
+      </c>
+      <c r="O31">
+        <v>0.9734285344880939</v>
+      </c>
+      <c r="P31">
+        <v>0.9887211002755111</v>
+      </c>
+      <c r="Q31">
+        <v>0.9887211002755111</v>
+      </c>
+      <c r="R31">
+        <v>0.9939003334961496</v>
+      </c>
+      <c r="S31">
+        <v>0.9939003334961496</v>
+      </c>
+      <c r="T31">
+        <v>0.9997161929607561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.057112248493151</v>
+      </c>
+      <c r="D32">
+        <v>1.086846673972603</v>
+      </c>
+      <c r="E32">
+        <v>0.9120855553424658</v>
+      </c>
+      <c r="F32">
+        <v>1.040855593424658</v>
+      </c>
+      <c r="G32">
+        <v>1.034165629589041</v>
+      </c>
+      <c r="H32">
+        <v>0.8306111506849313</v>
+      </c>
+      <c r="I32">
+        <v>1.057112248493151</v>
+      </c>
+      <c r="J32">
+        <v>0.8306111506849313</v>
+      </c>
+      <c r="K32">
+        <v>1.057112248493151</v>
+      </c>
+      <c r="L32">
+        <v>1.034165629589041</v>
+      </c>
+      <c r="M32">
+        <v>0.9323883901369863</v>
+      </c>
+      <c r="N32">
+        <v>0.9323883901369863</v>
+      </c>
+      <c r="O32">
+        <v>0.9256207785388127</v>
+      </c>
+      <c r="P32">
+        <v>0.9739630095890411</v>
+      </c>
+      <c r="Q32">
+        <v>0.9739630095890411</v>
+      </c>
+      <c r="R32">
+        <v>0.9947503193150686</v>
+      </c>
+      <c r="S32">
+        <v>0.9947503193150686</v>
+      </c>
+      <c r="T32">
+        <v>0.993612808584475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9996629678947367</v>
+      </c>
+      <c r="D33">
+        <v>1.090827807894737</v>
+      </c>
+      <c r="E33">
+        <v>0.9482600973684209</v>
+      </c>
+      <c r="F33">
+        <v>1.022106726842105</v>
+      </c>
+      <c r="G33">
+        <v>1.031342835789474</v>
+      </c>
+      <c r="H33">
+        <v>0.9204919189473684</v>
+      </c>
+      <c r="I33">
+        <v>0.9996629678947367</v>
+      </c>
+      <c r="J33">
+        <v>0.9204919189473684</v>
+      </c>
+      <c r="K33">
+        <v>0.9996629678947367</v>
+      </c>
+      <c r="L33">
+        <v>1.031342835789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9759173773684211</v>
+      </c>
+      <c r="N33">
+        <v>0.9759173773684211</v>
+      </c>
+      <c r="O33">
+        <v>0.9666982840350876</v>
+      </c>
+      <c r="P33">
+        <v>0.9838325742105263</v>
+      </c>
+      <c r="Q33">
+        <v>0.9838325742105264</v>
+      </c>
+      <c r="R33">
+        <v>0.987790172631579</v>
+      </c>
+      <c r="S33">
+        <v>0.987790172631579</v>
+      </c>
+      <c r="T33">
+        <v>1.00211539245614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="D34">
+        <v>1.103303594736842</v>
+      </c>
+      <c r="E34">
+        <v>0.8962658610526315</v>
+      </c>
+      <c r="F34">
+        <v>1.04813602631579</v>
+      </c>
+      <c r="G34">
+        <v>1.040448594736842</v>
+      </c>
+      <c r="H34">
+        <v>0.8007687910526315</v>
+      </c>
+      <c r="I34">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="J34">
+        <v>0.8007687910526315</v>
+      </c>
+      <c r="K34">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="L34">
+        <v>1.040448594736842</v>
+      </c>
+      <c r="M34">
+        <v>0.9206086928947369</v>
+      </c>
+      <c r="N34">
+        <v>0.9206086928947369</v>
+      </c>
+      <c r="O34">
+        <v>0.912494415614035</v>
+      </c>
+      <c r="P34">
+        <v>0.9693446110526317</v>
+      </c>
+      <c r="Q34">
+        <v>0.9693446110526317</v>
+      </c>
+      <c r="R34">
+        <v>0.9937125701315791</v>
+      </c>
+      <c r="S34">
+        <v>0.9937125701315791</v>
+      </c>
+      <c r="T34">
+        <v>0.9926232192105265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.030993762996975</v>
+      </c>
+      <c r="D35">
+        <v>1.192300761886641</v>
+      </c>
+      <c r="E35">
+        <v>0.8686822421396768</v>
+      </c>
+      <c r="F35">
+        <v>1.058159383837483</v>
+      </c>
+      <c r="G35">
+        <v>1.069338622572605</v>
+      </c>
+      <c r="H35">
+        <v>0.7774707567759208</v>
+      </c>
+      <c r="I35">
+        <v>1.030993762996975</v>
+      </c>
+      <c r="J35">
+        <v>0.7774707567759208</v>
+      </c>
+      <c r="K35">
+        <v>1.030993762996975</v>
+      </c>
+      <c r="L35">
+        <v>1.069338622572605</v>
+      </c>
+      <c r="M35">
+        <v>0.9234046896742627</v>
+      </c>
+      <c r="N35">
+        <v>0.9234046896742627</v>
+      </c>
+      <c r="O35">
+        <v>0.9051638738294008</v>
+      </c>
+      <c r="P35">
+        <v>0.959267714115167</v>
+      </c>
+      <c r="Q35">
+        <v>0.959267714115167</v>
+      </c>
+      <c r="R35">
+        <v>0.9771992263356191</v>
+      </c>
+      <c r="S35">
+        <v>0.9771992263356191</v>
+      </c>
+      <c r="T35">
+        <v>0.9994909217015504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="D36">
+        <v>1.000270535271215</v>
+      </c>
+      <c r="E36">
+        <v>0.9999929809802389</v>
+      </c>
+      <c r="F36">
+        <v>0.9999922931157691</v>
+      </c>
+      <c r="G36">
+        <v>1.000083412734016</v>
+      </c>
+      <c r="H36">
+        <v>1.000107112703649</v>
+      </c>
+      <c r="I36">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="J36">
+        <v>1.000107112703649</v>
+      </c>
+      <c r="K36">
+        <v>0.999770878877609</v>
+      </c>
+      <c r="L36">
+        <v>1.000083412734016</v>
+      </c>
+      <c r="M36">
+        <v>1.000095262718832</v>
+      </c>
+      <c r="N36">
+        <v>1.000095262718832</v>
+      </c>
+      <c r="O36">
+        <v>1.000061168805968</v>
+      </c>
+      <c r="P36">
+        <v>0.9999871347717578</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999871347717578</v>
+      </c>
+      <c r="R36">
+        <v>0.9999330707982206</v>
+      </c>
+      <c r="S36">
+        <v>0.9999330707982206</v>
+      </c>
+      <c r="T36">
+        <v>1.000036202280416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="D37">
+        <v>1.000129837303039</v>
+      </c>
+      <c r="E37">
+        <v>0.999661090977086</v>
+      </c>
+      <c r="F37">
+        <v>1.000165531044686</v>
+      </c>
+      <c r="G37">
+        <v>1.000067383446498</v>
+      </c>
+      <c r="H37">
+        <v>0.9992566704326337</v>
+      </c>
+      <c r="I37">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="J37">
+        <v>0.9992566704326337</v>
+      </c>
+      <c r="K37">
+        <v>1.000404034907337</v>
+      </c>
+      <c r="L37">
+        <v>1.000067383446498</v>
+      </c>
+      <c r="M37">
+        <v>0.9996620269395657</v>
+      </c>
+      <c r="N37">
+        <v>0.9996620269395657</v>
+      </c>
+      <c r="O37">
+        <v>0.9996617149520725</v>
+      </c>
+      <c r="P37">
+        <v>0.999909362928823</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999093629288228</v>
+      </c>
+      <c r="R37">
+        <v>1.000033030923452</v>
+      </c>
+      <c r="S37">
+        <v>1.000033030923452</v>
+      </c>
+      <c r="T37">
+        <v>0.9999474246852132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="D38">
+        <v>1.00181824907233</v>
+      </c>
+      <c r="E38">
+        <v>0.9988542990759707</v>
+      </c>
+      <c r="F38">
+        <v>1.000504125813442</v>
+      </c>
+      <c r="G38">
+        <v>1.000656189374116</v>
+      </c>
+      <c r="H38">
+        <v>0.9981048786517669</v>
+      </c>
+      <c r="I38">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="J38">
+        <v>0.9981048786517669</v>
+      </c>
+      <c r="K38">
+        <v>1.000134605519531</v>
+      </c>
+      <c r="L38">
+        <v>1.000656189374116</v>
+      </c>
+      <c r="M38">
+        <v>0.9993805340129414</v>
+      </c>
+      <c r="N38">
+        <v>0.9993805340129414</v>
+      </c>
+      <c r="O38">
+        <v>0.9992051223672845</v>
+      </c>
+      <c r="P38">
+        <v>0.9996318911818047</v>
+      </c>
+      <c r="Q38">
+        <v>0.9996318911818046</v>
+      </c>
+      <c r="R38">
+        <v>0.9997575697662362</v>
+      </c>
+      <c r="S38">
+        <v>0.9997575697662362</v>
+      </c>
+      <c r="T38">
+        <v>1.00001205791786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.999621694016096</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.004980121698593</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9973425736784667</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001140827890119</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.001765988399891</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9959305140502002</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.999621694016096</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9959305140502002</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.999621694016096</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001765988399891</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9988482512250455</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9988482512250455</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9983463587095193</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999106065488729</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999106065488729</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9992349726205708</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9992349726205708</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000130286622227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.01012504071284</v>
+      </c>
+      <c r="D40">
+        <v>1.050594877518245</v>
+      </c>
+      <c r="E40">
+        <v>0.9641670619023227</v>
+      </c>
+      <c r="F40">
+        <v>1.015947703055966</v>
+      </c>
+      <c r="G40">
+        <v>1.018343862912224</v>
+      </c>
+      <c r="H40">
+        <v>0.9384219348019158</v>
+      </c>
+      <c r="I40">
+        <v>1.01012504071284</v>
+      </c>
+      <c r="J40">
+        <v>0.9384219348019158</v>
+      </c>
+      <c r="K40">
+        <v>1.01012504071284</v>
+      </c>
+      <c r="L40">
+        <v>1.018343862912224</v>
+      </c>
+      <c r="M40">
+        <v>0.9783828988570701</v>
+      </c>
+      <c r="N40">
+        <v>0.9783828988570701</v>
+      </c>
+      <c r="O40">
+        <v>0.973644286538821</v>
+      </c>
+      <c r="P40">
+        <v>0.9889636128089935</v>
+      </c>
+      <c r="Q40">
+        <v>0.9889636128089935</v>
+      </c>
+      <c r="R40">
+        <v>0.9942539697849552</v>
+      </c>
+      <c r="S40">
+        <v>0.9942539697849552</v>
+      </c>
+      <c r="T40">
+        <v>0.9996000801505858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999854278813974</v>
+      </c>
+      <c r="D41">
+        <v>0.9955995929668773</v>
+      </c>
+      <c r="E41">
+        <v>1.002527087046757</v>
+      </c>
+      <c r="F41">
+        <v>0.998918605344096</v>
+      </c>
+      <c r="G41">
+        <v>0.9984795862043495</v>
+      </c>
+      <c r="H41">
+        <v>1.003900882114191</v>
+      </c>
+      <c r="I41">
+        <v>0.9999854278813974</v>
+      </c>
+      <c r="J41">
+        <v>1.003900882114191</v>
+      </c>
+      <c r="K41">
+        <v>0.9999854278813974</v>
+      </c>
+      <c r="L41">
+        <v>0.9984795862043495</v>
+      </c>
+      <c r="M41">
+        <v>1.00119023415927</v>
+      </c>
+      <c r="N41">
+        <v>1.00119023415927</v>
+      </c>
+      <c r="O41">
+        <v>1.001635851788432</v>
+      </c>
+      <c r="P41">
+        <v>1.000788632066646</v>
+      </c>
+      <c r="Q41">
+        <v>1.000788632066646</v>
+      </c>
+      <c r="R41">
+        <v>1.000587831020334</v>
+      </c>
+      <c r="S41">
+        <v>1.000587831020334</v>
+      </c>
+      <c r="T41">
+        <v>0.9999018635929448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.026446374290203</v>
+      </c>
+      <c r="D42">
+        <v>1.077612739392811</v>
+      </c>
+      <c r="E42">
+        <v>0.9378741766073113</v>
+      </c>
+      <c r="F42">
+        <v>1.028085379565935</v>
+      </c>
+      <c r="G42">
+        <v>1.028759871723899</v>
+      </c>
+      <c r="H42">
+        <v>0.8885050565284899</v>
+      </c>
+      <c r="I42">
+        <v>1.026446374290203</v>
+      </c>
+      <c r="J42">
+        <v>0.8885050565284899</v>
+      </c>
+      <c r="K42">
+        <v>1.026446374290203</v>
+      </c>
+      <c r="L42">
+        <v>1.028759871723899</v>
+      </c>
+      <c r="M42">
+        <v>0.9586324641261945</v>
+      </c>
+      <c r="N42">
+        <v>0.9586324641261945</v>
+      </c>
+      <c r="O42">
+        <v>0.9517130349532334</v>
+      </c>
+      <c r="P42">
+        <v>0.9812371008475308</v>
+      </c>
+      <c r="Q42">
+        <v>0.9812371008475308</v>
+      </c>
+      <c r="R42">
+        <v>0.9925394192081989</v>
+      </c>
+      <c r="S42">
+        <v>0.9925394192081989</v>
+      </c>
+      <c r="T42">
+        <v>0.9978805996847747</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0023752786411</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="D3">
-        <v>0.9927410062601087</v>
+        <v>1.000972743138677</v>
       </c>
       <c r="E3">
-        <v>1.00150365895919</v>
+        <v>0.9992831226717243</v>
       </c>
       <c r="F3">
-        <v>1.0023752786411</v>
+        <v>1.000320798069191</v>
       </c>
       <c r="G3">
-        <v>1.003845358634402</v>
+        <v>1.000355253926609</v>
       </c>
       <c r="H3">
-        <v>0.9962083622953579</v>
+        <v>0.9987492523799008</v>
       </c>
       <c r="I3">
-        <v>1.001757772987087</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="J3">
-        <v>0.9927410062601087</v>
+        <v>0.9987492523799008</v>
       </c>
       <c r="K3">
-        <v>1.0023752786411</v>
+        <v>1.000237077428879</v>
       </c>
       <c r="L3">
-        <v>1.00150365895919</v>
+        <v>1.000355253926609</v>
       </c>
       <c r="M3">
-        <v>0.9971223326096492</v>
+        <v>0.999552253153255</v>
       </c>
       <c r="N3">
-        <v>0.9971223326096492</v>
+        <v>0.999552253153255</v>
       </c>
       <c r="O3">
-        <v>0.9968176758382188</v>
+        <v>0.9994625429927447</v>
       </c>
       <c r="P3">
-        <v>0.9988733146201328</v>
+        <v>0.9997805279117964</v>
       </c>
       <c r="Q3">
-        <v>0.9988733146201328</v>
+        <v>0.9997805279117964</v>
       </c>
       <c r="R3">
-        <v>0.9997488056253747</v>
+        <v>0.999894665291067</v>
       </c>
       <c r="S3">
-        <v>0.9997488056253747</v>
+        <v>0.999894665291067</v>
       </c>
       <c r="T3">
-        <v>0.9997385729628743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.999986374602497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00461239214728</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="D4">
-        <v>0.9859720275282761</v>
+        <v>1.050594877518245</v>
       </c>
       <c r="E4">
-        <v>1.002893941360726</v>
+        <v>0.9641670619023227</v>
       </c>
       <c r="F4">
-        <v>1.00461239214728</v>
+        <v>1.015947703055966</v>
       </c>
       <c r="G4">
-        <v>1.007395301358965</v>
+        <v>1.018343862912224</v>
       </c>
       <c r="H4">
-        <v>0.9926792649804024</v>
+        <v>0.9384219348019158</v>
       </c>
       <c r="I4">
-        <v>1.003394945161671</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="J4">
-        <v>0.9859720275282761</v>
+        <v>0.9384219348019158</v>
       </c>
       <c r="K4">
-        <v>1.00461239214728</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="L4">
-        <v>1.002893941360726</v>
+        <v>1.018343862912224</v>
       </c>
       <c r="M4">
-        <v>0.9944329844445012</v>
+        <v>0.9783828988570701</v>
       </c>
       <c r="N4">
-        <v>0.9944329844445012</v>
+        <v>0.9783828988570701</v>
       </c>
       <c r="O4">
-        <v>0.9938484112898016</v>
+        <v>0.973644286538821</v>
       </c>
       <c r="P4">
-        <v>0.9978261203454274</v>
+        <v>0.9889636128089935</v>
       </c>
       <c r="Q4">
-        <v>0.9978261203454274</v>
+        <v>0.9889636128089935</v>
       </c>
       <c r="R4">
-        <v>0.9995226882958905</v>
+        <v>0.9942539697849552</v>
       </c>
       <c r="S4">
-        <v>0.9995226882958905</v>
+        <v>0.9942539697849552</v>
       </c>
       <c r="T4">
-        <v>0.9994913120895533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9996000801505858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008660263006518</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="D5">
-        <v>0.973224645666281</v>
+        <v>1.054950553342937</v>
       </c>
       <c r="E5">
-        <v>1.005602843705429</v>
+        <v>0.9598770629322755</v>
       </c>
       <c r="F5">
-        <v>1.008660263006518</v>
+        <v>1.017945219409217</v>
       </c>
       <c r="G5">
-        <v>1.014366112737799</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="H5">
-        <v>0.9859769048233268</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="I5">
-        <v>1.006494220405977</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="J5">
-        <v>0.973224645666281</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="K5">
-        <v>1.008660263006518</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="L5">
-        <v>1.005602843705429</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="M5">
-        <v>0.9894137446858551</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="N5">
-        <v>0.9894137446858551</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="O5">
-        <v>0.9882681313983457</v>
+        <v>0.9700336517243033</v>
       </c>
       <c r="P5">
-        <v>0.9958292507927426</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="Q5">
-        <v>0.9958292507927426</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="R5">
-        <v>0.9990370038461864</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="S5">
-        <v>0.9990370038461864</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="T5">
-        <v>0.9990541650575552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9992942651008634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.012617360109366</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="D6">
-        <v>0.9607770057837599</v>
+        <v>1.192300761886641</v>
       </c>
       <c r="E6">
-        <v>1.008244979249284</v>
+        <v>0.8686822421396768</v>
       </c>
       <c r="F6">
-        <v>1.012617360109366</v>
+        <v>1.058159383837483</v>
       </c>
       <c r="G6">
-        <v>1.021160168371013</v>
+        <v>1.069338622572605</v>
       </c>
       <c r="H6">
-        <v>0.9794356739506249</v>
+        <v>0.7774707567759208</v>
       </c>
       <c r="I6">
-        <v>1.009519725971102</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="J6">
-        <v>0.9607770057837599</v>
+        <v>0.7774707567759208</v>
       </c>
       <c r="K6">
-        <v>1.012617360109366</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="L6">
-        <v>1.008244979249284</v>
+        <v>1.069338622572605</v>
       </c>
       <c r="M6">
-        <v>0.9845109925165219</v>
+        <v>0.9234046896742627</v>
       </c>
       <c r="N6">
-        <v>0.9845109925165219</v>
+        <v>0.9234046896742627</v>
       </c>
       <c r="O6">
-        <v>0.982819219661223</v>
+        <v>0.9051638738294008</v>
       </c>
       <c r="P6">
-        <v>0.9938797817141366</v>
+        <v>0.959267714115167</v>
       </c>
       <c r="Q6">
-        <v>0.9938797817141366</v>
+        <v>0.959267714115167</v>
       </c>
       <c r="R6">
-        <v>0.9985641763129439</v>
+        <v>0.9771992263356191</v>
       </c>
       <c r="S6">
-        <v>0.9985641763129439</v>
+        <v>0.9771992263356191</v>
       </c>
       <c r="T6">
-        <v>0.9986258189058582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9994909217015504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000077452018366</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="D7">
-        <v>0.9995351939800946</v>
+        <v>1.00439315918221</v>
       </c>
       <c r="E7">
-        <v>1.000137901466704</v>
+        <v>0.9955772725437189</v>
       </c>
       <c r="F7">
-        <v>1.000077452018366</v>
+        <v>1.002053536191132</v>
       </c>
       <c r="G7">
-        <v>1.00038013711113</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="H7">
-        <v>0.9997298715862372</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="I7">
-        <v>1.000120275696966</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="J7">
-        <v>0.9995351939800946</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="K7">
-        <v>1.000077452018366</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="L7">
-        <v>1.000137901466704</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="M7">
-        <v>0.9998365477233992</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="N7">
-        <v>0.9998365477233992</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="O7">
-        <v>0.9998009890110119</v>
+        <v>0.9962653358644037</v>
       </c>
       <c r="P7">
-        <v>0.9999168491550546</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="Q7">
-        <v>0.9999168491550545</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="R7">
-        <v>0.9999569998708823</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="S7">
-        <v>0.9999569998708823</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="T7">
-        <v>0.9999968053099161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9996829878937518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000237077428879</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="D8">
-        <v>0.9987492523799005</v>
+        <v>1.000129837303039</v>
       </c>
       <c r="E8">
-        <v>1.000355253926609</v>
+        <v>0.999661090977086</v>
       </c>
       <c r="F8">
-        <v>1.000237077428879</v>
+        <v>1.000165531044686</v>
       </c>
       <c r="G8">
-        <v>1.000972743138677</v>
+        <v>1.000067383446498</v>
       </c>
       <c r="H8">
-        <v>0.9992831226717243</v>
+        <v>0.9992566704326337</v>
       </c>
       <c r="I8">
-        <v>1.000320798069191</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="J8">
-        <v>0.9987492523799005</v>
+        <v>0.9992566704326337</v>
       </c>
       <c r="K8">
-        <v>1.000237077428879</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="L8">
-        <v>1.000355253926609</v>
+        <v>1.000067383446498</v>
       </c>
       <c r="M8">
-        <v>0.999552253153255</v>
+        <v>0.9996620269395657</v>
       </c>
       <c r="N8">
-        <v>0.999552253153255</v>
+        <v>0.9996620269395657</v>
       </c>
       <c r="O8">
-        <v>0.9994625429927447</v>
+        <v>0.9996617149520725</v>
       </c>
       <c r="P8">
-        <v>0.9997805279117964</v>
+        <v>0.999909362928823</v>
       </c>
       <c r="Q8">
-        <v>0.9997805279117963</v>
+        <v>0.9999093629288228</v>
       </c>
       <c r="R8">
-        <v>0.999894665291067</v>
+        <v>1.000033030923452</v>
       </c>
       <c r="S8">
-        <v>0.999894665291067</v>
+        <v>1.000033030923452</v>
       </c>
       <c r="T8">
-        <v>0.9999863746024968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999474246852132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000385819517056</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="D9">
-        <v>0.9982417571644624</v>
+        <v>1.007395301358965</v>
       </c>
       <c r="E9">
-        <v>1.000470603198203</v>
+        <v>0.9926792649804023</v>
       </c>
       <c r="F9">
-        <v>1.000385819517056</v>
+        <v>1.003394945161671</v>
       </c>
       <c r="G9">
-        <v>1.001277190014584</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="H9">
-        <v>0.9990099308280531</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="I9">
-        <v>1.000445883392576</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="J9">
-        <v>0.9982417571644624</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="K9">
-        <v>1.000385819517056</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="L9">
-        <v>1.000470603198203</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="M9">
-        <v>0.9993561801813329</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="N9">
-        <v>0.9993561801813329</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="O9">
-        <v>0.9992407637302397</v>
+        <v>0.9938484112898016</v>
       </c>
       <c r="P9">
-        <v>0.9996993932932404</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="Q9">
-        <v>0.9996993932932404</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="R9">
-        <v>0.9998709998491943</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="S9">
-        <v>0.9998709998491943</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="T9">
-        <v>0.9999718640191558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9994913120895533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000761618794075</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="D10">
-        <v>0.9962335411765666</v>
+        <v>1.195682552669861</v>
       </c>
       <c r="E10">
-        <v>1.001043896693934</v>
+        <v>0.8667447591427362</v>
       </c>
       <c r="F10">
-        <v>1.000761618794075</v>
+        <v>1.05899203046137</v>
       </c>
       <c r="G10">
-        <v>1.002849235094913</v>
+        <v>1.070519332453391</v>
       </c>
       <c r="H10">
-        <v>0.9978565472289913</v>
+        <v>0.7744563423654272</v>
       </c>
       <c r="I10">
-        <v>1.000961596883745</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="J10">
-        <v>0.9962335411765666</v>
+        <v>0.7744563423654272</v>
       </c>
       <c r="K10">
-        <v>1.000761618794075</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="L10">
-        <v>1.001043896693934</v>
+        <v>1.070519332453391</v>
       </c>
       <c r="M10">
-        <v>0.9986387189352504</v>
+        <v>0.9224878374094091</v>
       </c>
       <c r="N10">
-        <v>0.9986387189352504</v>
+        <v>0.9224878374094091</v>
       </c>
       <c r="O10">
-        <v>0.9983779950331639</v>
+        <v>0.9039068113205181</v>
       </c>
       <c r="P10">
-        <v>0.9993463522215252</v>
+        <v>0.9586520968877302</v>
       </c>
       <c r="Q10">
-        <v>0.9993463522215252</v>
+        <v>0.9586520968877302</v>
       </c>
       <c r="R10">
-        <v>0.9997001688646627</v>
+        <v>0.9767342266268908</v>
       </c>
       <c r="S10">
-        <v>0.9997001688646627</v>
+        <v>0.9767342266268908</v>
       </c>
       <c r="T10">
-        <v>0.9999510726453708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9995626054895262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001426611340561</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="D11">
-        <v>0.9936738461471508</v>
+        <v>1.05115017964073</v>
       </c>
       <c r="E11">
-        <v>1.001672727080398</v>
+        <v>0.9617094649523588</v>
       </c>
       <c r="F11">
-        <v>1.001426611340561</v>
+        <v>1.017180500849642</v>
       </c>
       <c r="G11">
-        <v>1.004533828441944</v>
+        <v>1.018767118372519</v>
       </c>
       <c r="H11">
-        <v>0.9964489136067801</v>
+        <v>0.9327399195481095</v>
       </c>
       <c r="I11">
-        <v>1.001600974995179</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="J11">
-        <v>0.9936738461471508</v>
+        <v>0.9327399195481095</v>
       </c>
       <c r="K11">
-        <v>1.001426611340561</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="L11">
-        <v>1.001672727080398</v>
+        <v>1.018767118372519</v>
       </c>
       <c r="M11">
-        <v>0.9976732866137746</v>
+        <v>0.9757535189603144</v>
       </c>
       <c r="N11">
-        <v>0.9976732866137746</v>
+        <v>0.9757535189603144</v>
       </c>
       <c r="O11">
-        <v>0.9972651622781098</v>
+        <v>0.9710721676243291</v>
       </c>
       <c r="P11">
-        <v>0.9989243948560368</v>
+        <v>0.9882773542118336</v>
       </c>
       <c r="Q11">
-        <v>0.9989243948560368</v>
+        <v>0.9882773542118337</v>
       </c>
       <c r="R11">
-        <v>0.9995499489771679</v>
+        <v>0.9945392718375934</v>
       </c>
       <c r="S11">
-        <v>0.9995499489771679</v>
+        <v>0.9945392718375934</v>
       </c>
       <c r="T11">
-        <v>0.9998928169353355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9991453680130387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9891261156197422</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="D12">
-        <v>1.065687611343511</v>
+        <v>1.059798864231577</v>
       </c>
       <c r="E12">
-        <v>0.9802891304142625</v>
+        <v>0.9590358190526305</v>
       </c>
       <c r="F12">
-        <v>0.9891261156197422</v>
+        <v>1.018150961894734</v>
       </c>
       <c r="G12">
-        <v>0.9446912132375229</v>
+        <v>1.021573688421054</v>
       </c>
       <c r="H12">
-        <v>1.038768516182305</v>
+        <v>0.9304930183789486</v>
       </c>
       <c r="I12">
-        <v>0.9828655059055107</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="J12">
-        <v>1.065687611343511</v>
+        <v>0.9304930183789486</v>
       </c>
       <c r="K12">
-        <v>0.9891261156197422</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="L12">
-        <v>0.9802891304142625</v>
+        <v>1.021573688421054</v>
       </c>
       <c r="M12">
-        <v>1.022988370878887</v>
+        <v>0.9760333534000011</v>
       </c>
       <c r="N12">
-        <v>1.022988370878887</v>
+        <v>0.9760333534000011</v>
       </c>
       <c r="O12">
-        <v>1.02824841931336</v>
+        <v>0.9703675086175442</v>
       </c>
       <c r="P12">
-        <v>1.011700952459172</v>
+        <v>0.9873001467649128</v>
       </c>
       <c r="Q12">
-        <v>1.011700952459172</v>
+        <v>0.9873001467649128</v>
       </c>
       <c r="R12">
-        <v>1.006057243249314</v>
+        <v>0.9929335434473687</v>
       </c>
       <c r="S12">
-        <v>1.006057243249314</v>
+        <v>0.9929335434473687</v>
       </c>
       <c r="T12">
-        <v>1.000238015450476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9998143475789466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9927659664095386</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="D13">
-        <v>1.021084726870479</v>
+        <v>0.9672212166098864</v>
       </c>
       <c r="E13">
-        <v>0.996072330544639</v>
+        <v>1.026378881070176</v>
       </c>
       <c r="F13">
-        <v>0.9927659664095386</v>
+        <v>0.9880402441459442</v>
       </c>
       <c r="G13">
-        <v>0.9914573462161658</v>
+        <v>0.9877542739873784</v>
       </c>
       <c r="H13">
-        <v>1.010102917857146</v>
+        <v>1.047613307877775</v>
       </c>
       <c r="I13">
-        <v>0.9951083754200345</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="J13">
-        <v>1.021084726870479</v>
+        <v>1.047613307877775</v>
       </c>
       <c r="K13">
-        <v>0.9927659664095386</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="L13">
-        <v>0.996072330544639</v>
+        <v>0.9877542739873784</v>
       </c>
       <c r="M13">
-        <v>1.008578528707559</v>
+        <v>1.017683790932577</v>
       </c>
       <c r="N13">
-        <v>1.008578528707559</v>
+        <v>1.017683790932577</v>
       </c>
       <c r="O13">
-        <v>1.009086658424088</v>
+        <v>1.020582154311777</v>
       </c>
       <c r="P13">
-        <v>1.003307674608219</v>
+        <v>1.008034245035184</v>
       </c>
       <c r="Q13">
-        <v>1.003307674608219</v>
+        <v>1.008034245035184</v>
       </c>
       <c r="R13">
-        <v>1.000672247558549</v>
+        <v>1.003209472086488</v>
       </c>
       <c r="S13">
-        <v>1.000672247558549</v>
+        <v>1.003209472086488</v>
       </c>
       <c r="T13">
-        <v>1.001098610553001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000957179488593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9565558125374185</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="D14">
-        <v>1.173467059371904</v>
+        <v>1.339376599999999</v>
       </c>
       <c r="E14">
-        <v>0.9569365107262972</v>
+        <v>0.7698135699999986</v>
       </c>
       <c r="F14">
-        <v>0.9565558125374185</v>
+        <v>1.101841100000001</v>
       </c>
       <c r="G14">
-        <v>0.8865750126537043</v>
+        <v>1.122210300000001</v>
       </c>
       <c r="H14">
-        <v>1.094569509018459</v>
+        <v>0.6110551399999998</v>
       </c>
       <c r="I14">
-        <v>0.9568255160372351</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="J14">
-        <v>1.173467059371904</v>
+        <v>0.6110551399999998</v>
       </c>
       <c r="K14">
-        <v>0.9565558125374185</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="L14">
-        <v>0.9569365107262972</v>
+        <v>1.122210300000001</v>
       </c>
       <c r="M14">
-        <v>1.0652017850491</v>
+        <v>0.8666327200000004</v>
       </c>
       <c r="N14">
-        <v>1.0652017850491</v>
+        <v>0.8666327200000004</v>
       </c>
       <c r="O14">
-        <v>1.07499102637222</v>
+        <v>0.8343596699999999</v>
       </c>
       <c r="P14">
-        <v>1.02898646087854</v>
+        <v>0.928536413333334</v>
       </c>
       <c r="Q14">
-        <v>1.02898646087854</v>
+        <v>0.928536413333334</v>
       </c>
       <c r="R14">
-        <v>1.010878798793259</v>
+        <v>0.9594882600000009</v>
       </c>
       <c r="S14">
-        <v>1.010878798793259</v>
+        <v>0.9594882600000009</v>
       </c>
       <c r="T14">
-        <v>1.004154903390836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9994400850000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9881400096302552</v>
+        <v>1.1248129</v>
       </c>
       <c r="D15">
-        <v>1.04444737005346</v>
+        <v>1.055856</v>
       </c>
       <c r="E15">
-        <v>0.9889826844603619</v>
+        <v>0.88627042</v>
       </c>
       <c r="F15">
-        <v>0.9881400096302552</v>
+        <v>1.0550102</v>
       </c>
       <c r="G15">
-        <v>0.969129600173114</v>
+        <v>1.0262848</v>
       </c>
       <c r="H15">
-        <v>1.025175499027671</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="I15">
-        <v>0.9887370091181411</v>
+        <v>1.1248129</v>
       </c>
       <c r="J15">
-        <v>1.04444737005346</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K15">
-        <v>0.9881400096302552</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9889826844603619</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>1.016715027256911</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>1.016715027256911</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>1.019535184513831</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>1.007190021381359</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>1.007190021381359</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>1.002427518443583</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>1.002427518443583</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>1.000768695410501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999770878877609</v>
+        <v>1.0555695</v>
       </c>
       <c r="D16">
-        <v>1.000107112703649</v>
+        <v>1.3923208</v>
       </c>
       <c r="E16">
-        <v>1.000083412734016</v>
+        <v>0.73750648</v>
       </c>
       <c r="F16">
-        <v>0.999770878877609</v>
+        <v>1.1157804</v>
       </c>
       <c r="G16">
-        <v>1.000270535271214</v>
+        <v>1.1405585</v>
       </c>
       <c r="H16">
-        <v>0.9999929809802389</v>
+        <v>0.55983377</v>
       </c>
       <c r="I16">
-        <v>0.9999922931157691</v>
+        <v>1.0555695</v>
       </c>
       <c r="J16">
-        <v>1.000107112703649</v>
+        <v>0.55983377</v>
       </c>
       <c r="K16">
-        <v>0.999770878877609</v>
+        <v>1.0555695</v>
       </c>
       <c r="L16">
-        <v>1.000083412734016</v>
+        <v>1.1405585</v>
       </c>
       <c r="M16">
-        <v>1.000095262718832</v>
+        <v>0.850196135</v>
       </c>
       <c r="N16">
-        <v>1.000095262718832</v>
+        <v>0.850196135</v>
       </c>
       <c r="O16">
-        <v>1.000061168805968</v>
+        <v>0.8126329166666667</v>
       </c>
       <c r="P16">
-        <v>0.9999871347717578</v>
+        <v>0.9186539233333333</v>
       </c>
       <c r="Q16">
-        <v>0.999987134771758</v>
+        <v>0.9186539233333333</v>
       </c>
       <c r="R16">
-        <v>0.9999330707982208</v>
+        <v>0.9528828174999999</v>
       </c>
       <c r="S16">
-        <v>0.9999330707982208</v>
+        <v>0.9528828174999999</v>
       </c>
       <c r="T16">
-        <v>1.000036202280416</v>
+        <v>1.000261575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000404034907337</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="D17">
-        <v>0.999256670432634</v>
+        <v>0.93185156</v>
       </c>
       <c r="E17">
-        <v>1.000067383446497</v>
+        <v>1.0533855</v>
       </c>
       <c r="F17">
-        <v>1.000404034907337</v>
+        <v>0.97579072</v>
       </c>
       <c r="G17">
-        <v>1.000129837303039</v>
+        <v>0.97440308</v>
       </c>
       <c r="H17">
-        <v>0.999661090977086</v>
+        <v>1.0960966</v>
       </c>
       <c r="I17">
-        <v>1.000165531044686</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="J17">
-        <v>0.999256670432634</v>
+        <v>1.0960966</v>
       </c>
       <c r="K17">
-        <v>1.000404034907337</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="L17">
-        <v>1.000067383446497</v>
+        <v>0.97440308</v>
       </c>
       <c r="M17">
-        <v>0.9996620269395656</v>
+        <v>1.03524984</v>
       </c>
       <c r="N17">
-        <v>0.9996620269395656</v>
+        <v>1.03524984</v>
       </c>
       <c r="O17">
-        <v>0.9996617149520723</v>
+        <v>1.04129506</v>
       </c>
       <c r="P17">
-        <v>0.9999093629288228</v>
+        <v>1.01655412</v>
       </c>
       <c r="Q17">
-        <v>0.9999093629288228</v>
+        <v>1.01655412</v>
       </c>
       <c r="R17">
-        <v>1.000033030923452</v>
+        <v>1.00720626</v>
       </c>
       <c r="S17">
-        <v>1.000033030923452</v>
+        <v>1.00720626</v>
       </c>
       <c r="T17">
-        <v>0.9999474246852134</v>
+        <v>1.00178169</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000134605519531</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="D18">
-        <v>0.9981048786517669</v>
+        <v>1.086846673972603</v>
       </c>
       <c r="E18">
-        <v>1.000656189374116</v>
+        <v>0.9120855553424658</v>
       </c>
       <c r="F18">
-        <v>1.000134605519531</v>
+        <v>1.040855593424658</v>
       </c>
       <c r="G18">
-        <v>1.00181824907233</v>
+        <v>1.034165629589041</v>
       </c>
       <c r="H18">
-        <v>0.9988542990759708</v>
+        <v>0.8306111506849313</v>
       </c>
       <c r="I18">
-        <v>1.000504125813442</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="J18">
-        <v>0.9981048786517669</v>
+        <v>0.8306111506849313</v>
       </c>
       <c r="K18">
-        <v>1.000134605519531</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="L18">
-        <v>1.000656189374116</v>
+        <v>1.034165629589041</v>
       </c>
       <c r="M18">
-        <v>0.9993805340129414</v>
+        <v>0.9323883901369863</v>
       </c>
       <c r="N18">
-        <v>0.9993805340129414</v>
+        <v>0.9323883901369863</v>
       </c>
       <c r="O18">
-        <v>0.9992051223672845</v>
+        <v>0.9256207785388127</v>
       </c>
       <c r="P18">
-        <v>0.9996318911818047</v>
+        <v>0.9739630095890411</v>
       </c>
       <c r="Q18">
-        <v>0.9996318911818047</v>
+        <v>0.9739630095890411</v>
       </c>
       <c r="R18">
-        <v>0.9997575697662364</v>
+        <v>0.9947503193150686</v>
       </c>
       <c r="S18">
-        <v>0.9997575697662364</v>
+        <v>0.9947503193150686</v>
       </c>
       <c r="T18">
-        <v>1.00001205791786</v>
+        <v>0.993612808584475</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.999621694016096</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="D19">
-        <v>0.9959305140502002</v>
+        <v>1.090827807894737</v>
       </c>
       <c r="E19">
-        <v>1.001765988399891</v>
+        <v>0.9482600973684209</v>
       </c>
       <c r="F19">
-        <v>0.999621694016096</v>
+        <v>1.022106726842105</v>
       </c>
       <c r="G19">
-        <v>1.004980121698593</v>
+        <v>1.031342835789474</v>
       </c>
       <c r="H19">
-        <v>0.9973425736784667</v>
+        <v>0.9204919189473684</v>
       </c>
       <c r="I19">
-        <v>1.001140827890119</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="J19">
-        <v>0.9959305140502002</v>
+        <v>0.9204919189473684</v>
       </c>
       <c r="K19">
-        <v>0.999621694016096</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="L19">
-        <v>1.001765988399891</v>
+        <v>1.031342835789474</v>
       </c>
       <c r="M19">
-        <v>0.9988482512250455</v>
+        <v>0.9759173773684211</v>
       </c>
       <c r="N19">
-        <v>0.9988482512250455</v>
+        <v>0.9759173773684211</v>
       </c>
       <c r="O19">
-        <v>0.9983463587095193</v>
+        <v>0.9666982840350876</v>
       </c>
       <c r="P19">
-        <v>0.999106065488729</v>
+        <v>0.9838325742105263</v>
       </c>
       <c r="Q19">
-        <v>0.999106065488729</v>
+        <v>0.9838325742105264</v>
       </c>
       <c r="R19">
-        <v>0.9992349726205708</v>
+        <v>0.987790172631579</v>
       </c>
       <c r="S19">
-        <v>0.9992349726205708</v>
+        <v>0.987790172631579</v>
       </c>
       <c r="T19">
-        <v>1.000130286622227</v>
+        <v>1.00211539245614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="D20">
+        <v>1.103303594736842</v>
+      </c>
+      <c r="E20">
+        <v>0.8962658610526315</v>
+      </c>
+      <c r="F20">
+        <v>1.04813602631579</v>
+      </c>
+      <c r="G20">
+        <v>1.040448594736842</v>
+      </c>
+      <c r="H20">
+        <v>0.8007687910526315</v>
+      </c>
+      <c r="I20">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="J20">
+        <v>0.8007687910526315</v>
+      </c>
+      <c r="K20">
+        <v>1.066816447368421</v>
+      </c>
+      <c r="L20">
+        <v>1.040448594736842</v>
+      </c>
+      <c r="M20">
+        <v>0.9206086928947369</v>
+      </c>
+      <c r="N20">
+        <v>0.9206086928947369</v>
+      </c>
+      <c r="O20">
+        <v>0.912494415614035</v>
+      </c>
+      <c r="P20">
+        <v>0.9693446110526317</v>
+      </c>
+      <c r="Q20">
+        <v>0.9693446110526317</v>
+      </c>
+      <c r="R20">
+        <v>0.9937125701315791</v>
+      </c>
+      <c r="S20">
+        <v>0.9937125701315791</v>
+      </c>
+      <c r="T20">
+        <v>0.9926232192105265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="D21">
+        <v>0.8865750126537043</v>
+      </c>
+      <c r="E21">
+        <v>1.094569509018459</v>
+      </c>
+      <c r="F21">
+        <v>0.9568255160372351</v>
+      </c>
+      <c r="G21">
+        <v>0.9569365107262972</v>
+      </c>
+      <c r="H21">
+        <v>1.173467059371904</v>
+      </c>
+      <c r="I21">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="J21">
+        <v>1.173467059371904</v>
+      </c>
+      <c r="K21">
+        <v>0.9565558125374185</v>
+      </c>
+      <c r="L21">
+        <v>0.9569365107262972</v>
+      </c>
+      <c r="M21">
+        <v>1.0652017850491</v>
+      </c>
+      <c r="N21">
+        <v>1.0652017850491</v>
+      </c>
+      <c r="O21">
+        <v>1.07499102637222</v>
+      </c>
+      <c r="P21">
+        <v>1.02898646087854</v>
+      </c>
+      <c r="Q21">
+        <v>1.02898646087854</v>
+      </c>
+      <c r="R21">
+        <v>1.010878798793259</v>
+      </c>
+      <c r="S21">
+        <v>1.010878798793259</v>
+      </c>
+      <c r="T21">
+        <v>1.004154903390836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="D22">
+        <v>0.969129600173114</v>
+      </c>
+      <c r="E22">
+        <v>1.025175499027671</v>
+      </c>
+      <c r="F22">
+        <v>0.988737009118141</v>
+      </c>
+      <c r="G22">
+        <v>0.9889826844603619</v>
+      </c>
+      <c r="H22">
+        <v>1.04444737005346</v>
+      </c>
+      <c r="I22">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="J22">
+        <v>1.04444737005346</v>
+      </c>
+      <c r="K22">
+        <v>0.9881400096302552</v>
+      </c>
+      <c r="L22">
+        <v>0.9889826844603619</v>
+      </c>
+      <c r="M22">
+        <v>1.016715027256911</v>
+      </c>
+      <c r="N22">
+        <v>1.016715027256911</v>
+      </c>
+      <c r="O22">
+        <v>1.019535184513831</v>
+      </c>
+      <c r="P22">
+        <v>1.007190021381359</v>
+      </c>
+      <c r="Q22">
+        <v>1.007190021381359</v>
+      </c>
+      <c r="R22">
+        <v>1.002427518443583</v>
+      </c>
+      <c r="S22">
+        <v>1.002427518443583</v>
+      </c>
+      <c r="T22">
+        <v>1.000768695410501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="D23">
+        <v>0.9446912132375229</v>
+      </c>
+      <c r="E23">
+        <v>1.038768516182305</v>
+      </c>
+      <c r="F23">
+        <v>0.9828655059055107</v>
+      </c>
+      <c r="G23">
+        <v>0.9802891304142625</v>
+      </c>
+      <c r="H23">
+        <v>1.065687611343511</v>
+      </c>
+      <c r="I23">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="J23">
+        <v>1.065687611343511</v>
+      </c>
+      <c r="K23">
+        <v>0.9891261156197422</v>
+      </c>
+      <c r="L23">
+        <v>0.9802891304142625</v>
+      </c>
+      <c r="M23">
+        <v>1.022988370878887</v>
+      </c>
+      <c r="N23">
+        <v>1.022988370878887</v>
+      </c>
+      <c r="O23">
+        <v>1.02824841931336</v>
+      </c>
+      <c r="P23">
+        <v>1.011700952459172</v>
+      </c>
+      <c r="Q23">
+        <v>1.011700952459172</v>
+      </c>
+      <c r="R23">
+        <v>1.006057243249314</v>
+      </c>
+      <c r="S23">
+        <v>1.006057243249314</v>
+      </c>
+      <c r="T23">
+        <v>1.000238015450476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="D24">
+        <v>0.991457346216166</v>
+      </c>
+      <c r="E24">
+        <v>1.010102917857146</v>
+      </c>
+      <c r="F24">
+        <v>0.9951083754200345</v>
+      </c>
+      <c r="G24">
+        <v>0.9960723305446388</v>
+      </c>
+      <c r="H24">
+        <v>1.021084726870479</v>
+      </c>
+      <c r="I24">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="J24">
+        <v>1.021084726870479</v>
+      </c>
+      <c r="K24">
+        <v>0.9927659664095386</v>
+      </c>
+      <c r="L24">
+        <v>0.9960723305446388</v>
+      </c>
+      <c r="M24">
+        <v>1.008578528707559</v>
+      </c>
+      <c r="N24">
+        <v>1.008578528707559</v>
+      </c>
+      <c r="O24">
+        <v>1.009086658424088</v>
+      </c>
+      <c r="P24">
+        <v>1.003307674608219</v>
+      </c>
+      <c r="Q24">
+        <v>1.003307674608219</v>
+      </c>
+      <c r="R24">
+        <v>1.000672247558549</v>
+      </c>
+      <c r="S24">
+        <v>1.000672247558549</v>
+      </c>
+      <c r="T24">
+        <v>1.001098610553001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.05896550999756</v>
+      </c>
+      <c r="D25">
+        <v>1.022981830125628</v>
+      </c>
+      <c r="E25">
+        <v>0.9478335360028276</v>
+      </c>
+      <c r="F25">
+        <v>1.025483744486642</v>
+      </c>
+      <c r="G25">
+        <v>1.011705240838845</v>
+      </c>
+      <c r="H25">
+        <v>0.8860492708011987</v>
+      </c>
+      <c r="I25">
+        <v>1.05896550999756</v>
+      </c>
+      <c r="J25">
+        <v>0.8860492708011987</v>
+      </c>
+      <c r="K25">
+        <v>1.05896550999756</v>
+      </c>
+      <c r="L25">
+        <v>1.011705240838845</v>
+      </c>
+      <c r="M25">
+        <v>0.9488772558200217</v>
+      </c>
+      <c r="N25">
+        <v>0.9488772558200217</v>
+      </c>
+      <c r="O25">
+        <v>0.9485293492142904</v>
+      </c>
+      <c r="P25">
+        <v>0.9855733405458676</v>
+      </c>
+      <c r="Q25">
+        <v>0.9855733405458676</v>
+      </c>
+      <c r="R25">
+        <v>1.003921382908791</v>
+      </c>
+      <c r="S25">
+        <v>1.003921382908791</v>
+      </c>
+      <c r="T25">
+        <v>0.9921698553754501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9911203093065557</v>
+      </c>
+      <c r="D26">
+        <v>1.0328201399228</v>
+      </c>
+      <c r="E26">
+        <v>0.9867215774662738</v>
+      </c>
+      <c r="F26">
+        <v>1.005359847239953</v>
+      </c>
+      <c r="G26">
+        <v>1.011219747729839</v>
+      </c>
+      <c r="H26">
+        <v>0.9833706552342959</v>
+      </c>
+      <c r="I26">
+        <v>0.9911203093065557</v>
+      </c>
+      <c r="J26">
+        <v>0.9833706552342959</v>
+      </c>
+      <c r="K26">
+        <v>0.9911203093065557</v>
+      </c>
+      <c r="L26">
+        <v>1.011219747729839</v>
+      </c>
+      <c r="M26">
+        <v>0.9972952014820675</v>
+      </c>
+      <c r="N26">
+        <v>0.9972952014820675</v>
+      </c>
+      <c r="O26">
+        <v>0.9937706601434696</v>
+      </c>
+      <c r="P26">
+        <v>0.9952369040902301</v>
+      </c>
+      <c r="Q26">
+        <v>0.9952369040902301</v>
+      </c>
+      <c r="R26">
+        <v>0.9942077553943116</v>
+      </c>
+      <c r="S26">
+        <v>0.9942077553943116</v>
+      </c>
+      <c r="T26">
+        <v>1.001768712816619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="D27">
+        <v>1.015455696747633</v>
+      </c>
+      <c r="E27">
+        <v>0.9861260814300561</v>
+      </c>
+      <c r="F27">
+        <v>1.00635705542387</v>
+      </c>
+      <c r="G27">
+        <v>1.005870624744431</v>
+      </c>
+      <c r="H27">
+        <v>0.9741932594053861</v>
+      </c>
+      <c r="I27">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="J27">
+        <v>0.9741932594053861</v>
+      </c>
+      <c r="K27">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="L27">
+        <v>1.005870624744431</v>
+      </c>
+      <c r="M27">
+        <v>0.9900319420749084</v>
+      </c>
+      <c r="N27">
+        <v>0.9900319420749084</v>
+      </c>
+      <c r="O27">
+        <v>0.9887299885266243</v>
+      </c>
+      <c r="P27">
+        <v>0.9958676491307944</v>
+      </c>
+      <c r="Q27">
+        <v>0.9958676491307944</v>
+      </c>
+      <c r="R27">
+        <v>0.9987855026587373</v>
+      </c>
+      <c r="S27">
+        <v>0.9987855026587373</v>
+      </c>
+      <c r="T27">
+        <v>0.9992569634989903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="D28">
+        <v>1.003446333253574</v>
+      </c>
+      <c r="E28">
+        <v>0.9939092861905958</v>
+      </c>
+      <c r="F28">
+        <v>1.002969866162964</v>
+      </c>
+      <c r="G28">
+        <v>1.001684933311993</v>
+      </c>
+      <c r="H28">
+        <v>0.9868604164094521</v>
+      </c>
+      <c r="I28">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="J28">
+        <v>0.9868604164094521</v>
+      </c>
+      <c r="K28">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="L28">
+        <v>1.001684933311993</v>
+      </c>
+      <c r="M28">
+        <v>0.9942726748607228</v>
+      </c>
+      <c r="N28">
+        <v>0.9942726748607228</v>
+      </c>
+      <c r="O28">
+        <v>0.9941515453040138</v>
+      </c>
+      <c r="P28">
+        <v>0.9982125327283704</v>
+      </c>
+      <c r="Q28">
+        <v>0.9982125327283704</v>
+      </c>
+      <c r="R28">
+        <v>1.000182461662194</v>
+      </c>
+      <c r="S28">
+        <v>1.000182461662194</v>
+      </c>
+      <c r="T28">
+        <v>0.9991605139653741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9926498008646213</v>
+      </c>
+      <c r="D29">
+        <v>0.9459604706558941</v>
+      </c>
+      <c r="E29">
+        <v>1.036553947592946</v>
+      </c>
+      <c r="F29">
+        <v>0.9836448600057938</v>
+      </c>
+      <c r="G29">
+        <v>0.9799391249235617</v>
+      </c>
+      <c r="H29">
+        <v>1.063023969518443</v>
+      </c>
+      <c r="I29">
+        <v>0.9926498008646213</v>
+      </c>
+      <c r="J29">
+        <v>1.063023969518443</v>
+      </c>
+      <c r="K29">
+        <v>0.9926498008646213</v>
+      </c>
+      <c r="L29">
+        <v>0.9799391249235617</v>
+      </c>
+      <c r="M29">
+        <v>1.021481547221002</v>
+      </c>
+      <c r="N29">
+        <v>1.021481547221002</v>
+      </c>
+      <c r="O29">
+        <v>1.026505680678317</v>
+      </c>
+      <c r="P29">
+        <v>1.011870965102209</v>
+      </c>
+      <c r="Q29">
+        <v>1.011870965102209</v>
+      </c>
+      <c r="R29">
+        <v>1.007065674042812</v>
+      </c>
+      <c r="S29">
+        <v>1.007065674042812</v>
+      </c>
+      <c r="T29">
+        <v>1.00029536226021</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01012504071284</v>
+        <v>1.009516405143995</v>
       </c>
       <c r="D4">
-        <v>1.050594877518245</v>
+        <v>1.04608192043703</v>
       </c>
       <c r="E4">
-        <v>0.9641670619023227</v>
+        <v>0.9671381326919676</v>
       </c>
       <c r="F4">
-        <v>1.015947703055966</v>
+        <v>1.01465017878051</v>
       </c>
       <c r="G4">
-        <v>1.018343862912224</v>
+        <v>1.016762844131858</v>
       </c>
       <c r="H4">
-        <v>0.9384219348019158</v>
+        <v>0.9433010373289121</v>
       </c>
       <c r="I4">
-        <v>1.01012504071284</v>
+        <v>1.009516405143995</v>
       </c>
       <c r="J4">
-        <v>0.9384219348019158</v>
+        <v>0.9433010373289121</v>
       </c>
       <c r="K4">
-        <v>1.01012504071284</v>
+        <v>1.009516405143995</v>
       </c>
       <c r="L4">
-        <v>1.018343862912224</v>
+        <v>1.016762844131858</v>
       </c>
       <c r="M4">
-        <v>0.9783828988570701</v>
+        <v>0.980031940730385</v>
       </c>
       <c r="N4">
-        <v>0.9783828988570701</v>
+        <v>0.980031940730385</v>
       </c>
       <c r="O4">
-        <v>0.973644286538821</v>
+        <v>0.9757340047175792</v>
       </c>
       <c r="P4">
-        <v>0.9889636128089935</v>
+        <v>0.9898600955349218</v>
       </c>
       <c r="Q4">
-        <v>0.9889636128089935</v>
+        <v>0.9898600955349218</v>
       </c>
       <c r="R4">
-        <v>0.9942539697849552</v>
+        <v>0.9947741729371902</v>
       </c>
       <c r="S4">
-        <v>0.9942539697849552</v>
+        <v>0.9947741729371902</v>
       </c>
       <c r="T4">
-        <v>0.9996000801505858</v>
+        <v>0.9995750864190455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.012768862680116</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="D5">
-        <v>1.054950553342937</v>
+        <v>1.085827953909528</v>
       </c>
       <c r="E5">
-        <v>0.9598770629322755</v>
+        <v>0.9065998797135668</v>
       </c>
       <c r="F5">
-        <v>1.017945219409217</v>
+        <v>1.043674698969831</v>
       </c>
       <c r="G5">
-        <v>1.020075407550432</v>
+        <v>1.034333212009058</v>
       </c>
       <c r="H5">
-        <v>0.9301484846902028</v>
+        <v>0.8170818087847411</v>
       </c>
       <c r="I5">
-        <v>1.012768862680116</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="J5">
-        <v>0.9301484846902028</v>
+        <v>0.8170818087847411</v>
       </c>
       <c r="K5">
-        <v>1.012768862680116</v>
+        <v>1.066374473382178</v>
       </c>
       <c r="L5">
-        <v>1.020075407550432</v>
+        <v>1.034333212009058</v>
       </c>
       <c r="M5">
-        <v>0.9751119461203173</v>
+        <v>0.9257075103968998</v>
       </c>
       <c r="N5">
-        <v>0.9751119461203173</v>
+        <v>0.9257075103968998</v>
       </c>
       <c r="O5">
-        <v>0.9700336517243033</v>
+        <v>0.9193383001691222</v>
       </c>
       <c r="P5">
-        <v>0.9876642516402501</v>
+        <v>0.9725964980586591</v>
       </c>
       <c r="Q5">
-        <v>0.9876642516402501</v>
+        <v>0.9725964980586591</v>
       </c>
       <c r="R5">
-        <v>0.9939404044002165</v>
+        <v>0.9960409918895389</v>
       </c>
       <c r="S5">
-        <v>0.9939404044002165</v>
+        <v>0.9960409918895389</v>
       </c>
       <c r="T5">
-        <v>0.9992942651008634</v>
+        <v>0.9923153377948171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.030993762996975</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="D6">
-        <v>1.192300761886641</v>
+        <v>1.050594877518245</v>
       </c>
       <c r="E6">
-        <v>0.8686822421396768</v>
+        <v>0.9641670619023227</v>
       </c>
       <c r="F6">
-        <v>1.058159383837483</v>
+        <v>1.015947703055966</v>
       </c>
       <c r="G6">
-        <v>1.069338622572605</v>
+        <v>1.018343862912224</v>
       </c>
       <c r="H6">
-        <v>0.7774707567759208</v>
+        <v>0.9384219348019158</v>
       </c>
       <c r="I6">
-        <v>1.030993762996975</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="J6">
-        <v>0.7774707567759208</v>
+        <v>0.9384219348019158</v>
       </c>
       <c r="K6">
-        <v>1.030993762996975</v>
+        <v>1.01012504071284</v>
       </c>
       <c r="L6">
-        <v>1.069338622572605</v>
+        <v>1.018343862912224</v>
       </c>
       <c r="M6">
-        <v>0.9234046896742627</v>
+        <v>0.9783828988570701</v>
       </c>
       <c r="N6">
-        <v>0.9234046896742627</v>
+        <v>0.9783828988570701</v>
       </c>
       <c r="O6">
-        <v>0.9051638738294008</v>
+        <v>0.973644286538821</v>
       </c>
       <c r="P6">
-        <v>0.959267714115167</v>
+        <v>0.9889636128089935</v>
       </c>
       <c r="Q6">
-        <v>0.959267714115167</v>
+        <v>0.9889636128089935</v>
       </c>
       <c r="R6">
-        <v>0.9771992263356191</v>
+        <v>0.9942539697849552</v>
       </c>
       <c r="S6">
-        <v>0.9771992263356191</v>
+        <v>0.9942539697849552</v>
       </c>
       <c r="T6">
-        <v>0.9994909217015504</v>
+        <v>0.9996000801505858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002855224395957</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="D7">
-        <v>1.00439315918221</v>
+        <v>1.054950553342937</v>
       </c>
       <c r="E7">
-        <v>0.9955772725437189</v>
+        <v>0.9598770629322755</v>
       </c>
       <c r="F7">
-        <v>1.002053536191132</v>
+        <v>1.017945219409217</v>
       </c>
       <c r="G7">
-        <v>1.001723626506172</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="H7">
-        <v>0.9914951085433201</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="I7">
-        <v>1.002855224395957</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="J7">
-        <v>0.9914951085433201</v>
+        <v>0.9301484846902028</v>
       </c>
       <c r="K7">
-        <v>1.002855224395957</v>
+        <v>1.012768862680116</v>
       </c>
       <c r="L7">
-        <v>1.001723626506172</v>
+        <v>1.020075407550432</v>
       </c>
       <c r="M7">
-        <v>0.9966093675247463</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="N7">
-        <v>0.9966093675247463</v>
+        <v>0.9751119461203173</v>
       </c>
       <c r="O7">
-        <v>0.9962653358644037</v>
+        <v>0.9700336517243033</v>
       </c>
       <c r="P7">
-        <v>0.9986913198151499</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="Q7">
-        <v>0.9986913198151499</v>
+        <v>0.9876642516402501</v>
       </c>
       <c r="R7">
-        <v>0.9997322959603517</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="S7">
-        <v>0.9997322959603517</v>
+        <v>0.9939404044002165</v>
       </c>
       <c r="T7">
-        <v>0.9996829878937518</v>
+        <v>0.9992942651008634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000404034907337</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="D8">
-        <v>1.000129837303039</v>
+        <v>1.192300761886641</v>
       </c>
       <c r="E8">
-        <v>0.999661090977086</v>
+        <v>0.8686822421396768</v>
       </c>
       <c r="F8">
-        <v>1.000165531044686</v>
+        <v>1.058159383837483</v>
       </c>
       <c r="G8">
-        <v>1.000067383446498</v>
+        <v>1.069338622572605</v>
       </c>
       <c r="H8">
-        <v>0.9992566704326337</v>
+        <v>0.7774707567759208</v>
       </c>
       <c r="I8">
-        <v>1.000404034907337</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="J8">
-        <v>0.9992566704326337</v>
+        <v>0.7774707567759208</v>
       </c>
       <c r="K8">
-        <v>1.000404034907337</v>
+        <v>1.030993762996975</v>
       </c>
       <c r="L8">
-        <v>1.000067383446498</v>
+        <v>1.069338622572605</v>
       </c>
       <c r="M8">
-        <v>0.9996620269395657</v>
+        <v>0.9234046896742627</v>
       </c>
       <c r="N8">
-        <v>0.9996620269395657</v>
+        <v>0.9234046896742627</v>
       </c>
       <c r="O8">
-        <v>0.9996617149520725</v>
+        <v>0.9051638738294008</v>
       </c>
       <c r="P8">
-        <v>0.999909362928823</v>
+        <v>0.959267714115167</v>
       </c>
       <c r="Q8">
-        <v>0.9999093629288228</v>
+        <v>0.959267714115167</v>
       </c>
       <c r="R8">
-        <v>1.000033030923452</v>
+        <v>0.9771992263356191</v>
       </c>
       <c r="S8">
-        <v>1.000033030923452</v>
+        <v>0.9771992263356191</v>
       </c>
       <c r="T8">
-        <v>0.9999474246852132</v>
+        <v>0.9994909217015504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00461239214728</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="D9">
-        <v>1.007395301358965</v>
+        <v>1.00439315918221</v>
       </c>
       <c r="E9">
-        <v>0.9926792649804023</v>
+        <v>0.9955772725437189</v>
       </c>
       <c r="F9">
-        <v>1.003394945161671</v>
+        <v>1.002053536191132</v>
       </c>
       <c r="G9">
-        <v>1.002893941360726</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="H9">
-        <v>0.9859720275282761</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="I9">
-        <v>1.00461239214728</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="J9">
-        <v>0.9859720275282761</v>
+        <v>0.9914951085433201</v>
       </c>
       <c r="K9">
-        <v>1.00461239214728</v>
+        <v>1.002855224395957</v>
       </c>
       <c r="L9">
-        <v>1.002893941360726</v>
+        <v>1.001723626506172</v>
       </c>
       <c r="M9">
-        <v>0.9944329844445012</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="N9">
-        <v>0.9944329844445012</v>
+        <v>0.9966093675247463</v>
       </c>
       <c r="O9">
-        <v>0.9938484112898016</v>
+        <v>0.9962653358644037</v>
       </c>
       <c r="P9">
-        <v>0.9978261203454274</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="Q9">
-        <v>0.9978261203454274</v>
+        <v>0.9986913198151499</v>
       </c>
       <c r="R9">
-        <v>0.9995226882958905</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="S9">
-        <v>0.9995226882958905</v>
+        <v>0.9997322959603517</v>
       </c>
       <c r="T9">
-        <v>0.9994913120895533</v>
+        <v>0.9996829878937518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.030980615844372</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="D10">
-        <v>1.195682552669861</v>
+        <v>1.000129837303039</v>
       </c>
       <c r="E10">
-        <v>0.8667447591427362</v>
+        <v>0.999661090977086</v>
       </c>
       <c r="F10">
-        <v>1.05899203046137</v>
+        <v>1.000165531044686</v>
       </c>
       <c r="G10">
-        <v>1.070519332453391</v>
+        <v>1.000067383446498</v>
       </c>
       <c r="H10">
-        <v>0.7744563423654272</v>
+        <v>0.9992566704326337</v>
       </c>
       <c r="I10">
-        <v>1.030980615844372</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="J10">
-        <v>0.7744563423654272</v>
+        <v>0.9992566704326337</v>
       </c>
       <c r="K10">
-        <v>1.030980615844372</v>
+        <v>1.000404034907337</v>
       </c>
       <c r="L10">
-        <v>1.070519332453391</v>
+        <v>1.000067383446498</v>
       </c>
       <c r="M10">
-        <v>0.9224878374094091</v>
+        <v>0.9996620269395657</v>
       </c>
       <c r="N10">
-        <v>0.9224878374094091</v>
+        <v>0.9996620269395657</v>
       </c>
       <c r="O10">
-        <v>0.9039068113205181</v>
+        <v>0.9996617149520725</v>
       </c>
       <c r="P10">
-        <v>0.9586520968877302</v>
+        <v>0.999909362928823</v>
       </c>
       <c r="Q10">
-        <v>0.9586520968877302</v>
+        <v>0.9999093629288228</v>
       </c>
       <c r="R10">
-        <v>0.9767342266268908</v>
+        <v>1.000033030923452</v>
       </c>
       <c r="S10">
-        <v>0.9767342266268908</v>
+        <v>1.000033030923452</v>
       </c>
       <c r="T10">
-        <v>0.9995626054895262</v>
+        <v>0.9999474246852132</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.013325024714872</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="D11">
-        <v>1.05115017964073</v>
+        <v>1.007395301358965</v>
       </c>
       <c r="E11">
-        <v>0.9617094649523588</v>
+        <v>0.9926792649804023</v>
       </c>
       <c r="F11">
-        <v>1.017180500849642</v>
+        <v>1.003394945161671</v>
       </c>
       <c r="G11">
-        <v>1.018767118372519</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="H11">
-        <v>0.9327399195481095</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="I11">
-        <v>1.013325024714872</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="J11">
-        <v>0.9327399195481095</v>
+        <v>0.9859720275282761</v>
       </c>
       <c r="K11">
-        <v>1.013325024714872</v>
+        <v>1.00461239214728</v>
       </c>
       <c r="L11">
-        <v>1.018767118372519</v>
+        <v>1.002893941360726</v>
       </c>
       <c r="M11">
-        <v>0.9757535189603144</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="N11">
-        <v>0.9757535189603144</v>
+        <v>0.9944329844445012</v>
       </c>
       <c r="O11">
-        <v>0.9710721676243291</v>
+        <v>0.9938484112898016</v>
       </c>
       <c r="P11">
-        <v>0.9882773542118336</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="Q11">
-        <v>0.9882773542118337</v>
+        <v>0.9978261203454274</v>
       </c>
       <c r="R11">
-        <v>0.9945392718375934</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="S11">
-        <v>0.9945392718375934</v>
+        <v>0.9995226882958905</v>
       </c>
       <c r="T11">
-        <v>0.9991453680130387</v>
+        <v>0.9994913120895533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.009833733494736</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="D12">
-        <v>1.059798864231577</v>
+        <v>1.195682552669861</v>
       </c>
       <c r="E12">
-        <v>0.9590358190526305</v>
+        <v>0.8667447591427362</v>
       </c>
       <c r="F12">
-        <v>1.018150961894734</v>
+        <v>1.05899203046137</v>
       </c>
       <c r="G12">
-        <v>1.021573688421054</v>
+        <v>1.070519332453391</v>
       </c>
       <c r="H12">
-        <v>0.9304930183789486</v>
+        <v>0.7744563423654272</v>
       </c>
       <c r="I12">
-        <v>1.009833733494736</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="J12">
-        <v>0.9304930183789486</v>
+        <v>0.7744563423654272</v>
       </c>
       <c r="K12">
-        <v>1.009833733494736</v>
+        <v>1.030980615844372</v>
       </c>
       <c r="L12">
-        <v>1.021573688421054</v>
+        <v>1.070519332453391</v>
       </c>
       <c r="M12">
-        <v>0.9760333534000011</v>
+        <v>0.9224878374094091</v>
       </c>
       <c r="N12">
-        <v>0.9760333534000011</v>
+        <v>0.9224878374094091</v>
       </c>
       <c r="O12">
-        <v>0.9703675086175442</v>
+        <v>0.9039068113205181</v>
       </c>
       <c r="P12">
-        <v>0.9873001467649128</v>
+        <v>0.9586520968877302</v>
       </c>
       <c r="Q12">
-        <v>0.9873001467649128</v>
+        <v>0.9586520968877302</v>
       </c>
       <c r="R12">
-        <v>0.9929335434473687</v>
+        <v>0.9767342266268908</v>
       </c>
       <c r="S12">
-        <v>0.9929335434473687</v>
+        <v>0.9767342266268908</v>
       </c>
       <c r="T12">
-        <v>0.9998143475789466</v>
+        <v>0.9995626054895262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.988735153240399</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="D13">
-        <v>0.9672212166098864</v>
+        <v>1.05115017964073</v>
       </c>
       <c r="E13">
-        <v>1.026378881070176</v>
+        <v>0.9617094649523588</v>
       </c>
       <c r="F13">
-        <v>0.9880402441459442</v>
+        <v>1.017180500849642</v>
       </c>
       <c r="G13">
-        <v>0.9877542739873784</v>
+        <v>1.018767118372519</v>
       </c>
       <c r="H13">
-        <v>1.047613307877775</v>
+        <v>0.9327399195481095</v>
       </c>
       <c r="I13">
-        <v>0.988735153240399</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="J13">
-        <v>1.047613307877775</v>
+        <v>0.9327399195481095</v>
       </c>
       <c r="K13">
-        <v>0.988735153240399</v>
+        <v>1.013325024714872</v>
       </c>
       <c r="L13">
-        <v>0.9877542739873784</v>
+        <v>1.018767118372519</v>
       </c>
       <c r="M13">
-        <v>1.017683790932577</v>
+        <v>0.9757535189603144</v>
       </c>
       <c r="N13">
-        <v>1.017683790932577</v>
+        <v>0.9757535189603144</v>
       </c>
       <c r="O13">
-        <v>1.020582154311777</v>
+        <v>0.9710721676243291</v>
       </c>
       <c r="P13">
-        <v>1.008034245035184</v>
+        <v>0.9882773542118336</v>
       </c>
       <c r="Q13">
-        <v>1.008034245035184</v>
+        <v>0.9882773542118337</v>
       </c>
       <c r="R13">
-        <v>1.003209472086488</v>
+        <v>0.9945392718375934</v>
       </c>
       <c r="S13">
-        <v>1.003209472086488</v>
+        <v>0.9945392718375934</v>
       </c>
       <c r="T13">
-        <v>1.000957179488593</v>
+        <v>0.9991453680130387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.052343800000001</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="D14">
-        <v>1.339376599999999</v>
+        <v>1.059798864231577</v>
       </c>
       <c r="E14">
-        <v>0.7698135699999986</v>
+        <v>0.9590358190526305</v>
       </c>
       <c r="F14">
-        <v>1.101841100000001</v>
+        <v>1.018150961894734</v>
       </c>
       <c r="G14">
-        <v>1.122210300000001</v>
+        <v>1.021573688421054</v>
       </c>
       <c r="H14">
-        <v>0.6110551399999998</v>
+        <v>0.9304930183789486</v>
       </c>
       <c r="I14">
-        <v>1.052343800000001</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="J14">
-        <v>0.6110551399999998</v>
+        <v>0.9304930183789486</v>
       </c>
       <c r="K14">
-        <v>1.052343800000001</v>
+        <v>1.009833733494736</v>
       </c>
       <c r="L14">
-        <v>1.122210300000001</v>
+        <v>1.021573688421054</v>
       </c>
       <c r="M14">
-        <v>0.8666327200000004</v>
+        <v>0.9760333534000011</v>
       </c>
       <c r="N14">
-        <v>0.8666327200000004</v>
+        <v>0.9760333534000011</v>
       </c>
       <c r="O14">
-        <v>0.8343596699999999</v>
+        <v>0.9703675086175442</v>
       </c>
       <c r="P14">
-        <v>0.928536413333334</v>
+        <v>0.9873001467649128</v>
       </c>
       <c r="Q14">
-        <v>0.928536413333334</v>
+        <v>0.9873001467649128</v>
       </c>
       <c r="R14">
-        <v>0.9594882600000009</v>
+        <v>0.9929335434473687</v>
       </c>
       <c r="S14">
-        <v>0.9594882600000009</v>
+        <v>0.9929335434473687</v>
       </c>
       <c r="T14">
-        <v>0.9994400850000001</v>
+        <v>0.9998143475789466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1248129</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="D15">
-        <v>1.055856</v>
+        <v>0.9672212166098864</v>
       </c>
       <c r="E15">
-        <v>0.88627042</v>
+        <v>1.026378881070176</v>
       </c>
       <c r="F15">
-        <v>1.0550102</v>
+        <v>0.9880402441459442</v>
       </c>
       <c r="G15">
-        <v>1.0262848</v>
+        <v>0.9877542739873784</v>
       </c>
       <c r="H15">
-        <v>0.7563714999999999</v>
+        <v>1.047613307877775</v>
       </c>
       <c r="I15">
-        <v>1.1248129</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="J15">
-        <v>0.7563714999999999</v>
+        <v>1.047613307877775</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>0.988735153240399</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>0.9877542739873784</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>1.017683790932577</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>1.017683790932577</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>1.020582154311777</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>1.008034245035184</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>1.008034245035184</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>1.003209472086488</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>1.003209472086488</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>1.000957179488593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0555695</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="D16">
-        <v>1.3923208</v>
+        <v>1.339376599999999</v>
       </c>
       <c r="E16">
-        <v>0.73750648</v>
+        <v>0.7698135699999986</v>
       </c>
       <c r="F16">
-        <v>1.1157804</v>
+        <v>1.101841100000001</v>
       </c>
       <c r="G16">
-        <v>1.1405585</v>
+        <v>1.122210300000001</v>
       </c>
       <c r="H16">
-        <v>0.55983377</v>
+        <v>0.6110551399999998</v>
       </c>
       <c r="I16">
-        <v>1.0555695</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="J16">
-        <v>0.55983377</v>
+        <v>0.6110551399999998</v>
       </c>
       <c r="K16">
-        <v>1.0555695</v>
+        <v>1.052343800000001</v>
       </c>
       <c r="L16">
-        <v>1.1405585</v>
+        <v>1.122210300000001</v>
       </c>
       <c r="M16">
-        <v>0.850196135</v>
+        <v>0.8666327200000004</v>
       </c>
       <c r="N16">
-        <v>0.850196135</v>
+        <v>0.8666327200000004</v>
       </c>
       <c r="O16">
-        <v>0.8126329166666667</v>
+        <v>0.8343596699999999</v>
       </c>
       <c r="P16">
-        <v>0.9186539233333333</v>
+        <v>0.928536413333334</v>
       </c>
       <c r="Q16">
-        <v>0.9186539233333333</v>
+        <v>0.928536413333334</v>
       </c>
       <c r="R16">
-        <v>0.9528828174999999</v>
+        <v>0.9594882600000009</v>
       </c>
       <c r="S16">
-        <v>0.9528828174999999</v>
+        <v>0.9594882600000009</v>
       </c>
       <c r="T16">
-        <v>1.000261575</v>
+        <v>0.9994400850000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9791626800000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="D17">
-        <v>0.93185156</v>
+        <v>1.055856</v>
       </c>
       <c r="E17">
-        <v>1.0533855</v>
+        <v>0.88627042</v>
       </c>
       <c r="F17">
-        <v>0.97579072</v>
+        <v>1.0550102</v>
       </c>
       <c r="G17">
-        <v>0.97440308</v>
+        <v>1.0262848</v>
       </c>
       <c r="H17">
-        <v>1.0960966</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="I17">
-        <v>0.9791626800000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="J17">
-        <v>1.0960966</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K17">
-        <v>0.9791626800000001</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>0.97440308</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>1.03524984</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>1.03524984</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>1.04129506</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>1.01655412</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>1.01655412</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>1.00720626</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>1.00720626</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>1.00178169</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.057112248493151</v>
+        <v>1.0555695</v>
       </c>
       <c r="D18">
-        <v>1.086846673972603</v>
+        <v>1.3923208</v>
       </c>
       <c r="E18">
-        <v>0.9120855553424658</v>
+        <v>0.73750648</v>
       </c>
       <c r="F18">
-        <v>1.040855593424658</v>
+        <v>1.1157804</v>
       </c>
       <c r="G18">
-        <v>1.034165629589041</v>
+        <v>1.1405585</v>
       </c>
       <c r="H18">
-        <v>0.8306111506849313</v>
+        <v>0.55983377</v>
       </c>
       <c r="I18">
-        <v>1.057112248493151</v>
+        <v>1.0555695</v>
       </c>
       <c r="J18">
-        <v>0.8306111506849313</v>
+        <v>0.55983377</v>
       </c>
       <c r="K18">
-        <v>1.057112248493151</v>
+        <v>1.0555695</v>
       </c>
       <c r="L18">
-        <v>1.034165629589041</v>
+        <v>1.1405585</v>
       </c>
       <c r="M18">
-        <v>0.9323883901369863</v>
+        <v>0.850196135</v>
       </c>
       <c r="N18">
-        <v>0.9323883901369863</v>
+        <v>0.850196135</v>
       </c>
       <c r="O18">
-        <v>0.9256207785388127</v>
+        <v>0.8126329166666667</v>
       </c>
       <c r="P18">
-        <v>0.9739630095890411</v>
+        <v>0.9186539233333333</v>
       </c>
       <c r="Q18">
-        <v>0.9739630095890411</v>
+        <v>0.9186539233333333</v>
       </c>
       <c r="R18">
-        <v>0.9947503193150686</v>
+        <v>0.9528828174999999</v>
       </c>
       <c r="S18">
-        <v>0.9947503193150686</v>
+        <v>0.9528828174999999</v>
       </c>
       <c r="T18">
-        <v>0.993612808584475</v>
+        <v>1.000261575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9996629678947367</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="D19">
-        <v>1.090827807894737</v>
+        <v>0.93185156</v>
       </c>
       <c r="E19">
-        <v>0.9482600973684209</v>
+        <v>1.0533855</v>
       </c>
       <c r="F19">
-        <v>1.022106726842105</v>
+        <v>0.97579072</v>
       </c>
       <c r="G19">
-        <v>1.031342835789474</v>
+        <v>0.97440308</v>
       </c>
       <c r="H19">
-        <v>0.9204919189473684</v>
+        <v>1.0960966</v>
       </c>
       <c r="I19">
-        <v>0.9996629678947367</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="J19">
-        <v>0.9204919189473684</v>
+        <v>1.0960966</v>
       </c>
       <c r="K19">
-        <v>0.9996629678947367</v>
+        <v>0.9791626800000001</v>
       </c>
       <c r="L19">
-        <v>1.031342835789474</v>
+        <v>0.97440308</v>
       </c>
       <c r="M19">
-        <v>0.9759173773684211</v>
+        <v>1.03524984</v>
       </c>
       <c r="N19">
-        <v>0.9759173773684211</v>
+        <v>1.03524984</v>
       </c>
       <c r="O19">
-        <v>0.9666982840350876</v>
+        <v>1.04129506</v>
       </c>
       <c r="P19">
-        <v>0.9838325742105263</v>
+        <v>1.01655412</v>
       </c>
       <c r="Q19">
-        <v>0.9838325742105264</v>
+        <v>1.01655412</v>
       </c>
       <c r="R19">
-        <v>0.987790172631579</v>
+        <v>1.00720626</v>
       </c>
       <c r="S19">
-        <v>0.987790172631579</v>
+        <v>1.00720626</v>
       </c>
       <c r="T19">
-        <v>1.00211539245614</v>
+        <v>1.00178169</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.066816447368421</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="D20">
-        <v>1.103303594736842</v>
+        <v>1.086846673972603</v>
       </c>
       <c r="E20">
-        <v>0.8962658610526315</v>
+        <v>0.9120855553424658</v>
       </c>
       <c r="F20">
-        <v>1.04813602631579</v>
+        <v>1.040855593424658</v>
       </c>
       <c r="G20">
-        <v>1.040448594736842</v>
+        <v>1.034165629589041</v>
       </c>
       <c r="H20">
-        <v>0.8007687910526315</v>
+        <v>0.8306111506849313</v>
       </c>
       <c r="I20">
-        <v>1.066816447368421</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="J20">
-        <v>0.8007687910526315</v>
+        <v>0.8306111506849313</v>
       </c>
       <c r="K20">
-        <v>1.066816447368421</v>
+        <v>1.057112248493151</v>
       </c>
       <c r="L20">
-        <v>1.040448594736842</v>
+        <v>1.034165629589041</v>
       </c>
       <c r="M20">
-        <v>0.9206086928947369</v>
+        <v>0.9323883901369863</v>
       </c>
       <c r="N20">
-        <v>0.9206086928947369</v>
+        <v>0.9323883901369863</v>
       </c>
       <c r="O20">
-        <v>0.912494415614035</v>
+        <v>0.9256207785388127</v>
       </c>
       <c r="P20">
-        <v>0.9693446110526317</v>
+        <v>0.9739630095890411</v>
       </c>
       <c r="Q20">
-        <v>0.9693446110526317</v>
+        <v>0.9739630095890411</v>
       </c>
       <c r="R20">
-        <v>0.9937125701315791</v>
+        <v>0.9947503193150686</v>
       </c>
       <c r="S20">
-        <v>0.9937125701315791</v>
+        <v>0.9947503193150686</v>
       </c>
       <c r="T20">
-        <v>0.9926232192105265</v>
+        <v>0.993612808584475</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9565558125374185</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="D21">
-        <v>0.8865750126537043</v>
+        <v>1.090827807894737</v>
       </c>
       <c r="E21">
-        <v>1.094569509018459</v>
+        <v>0.9482600973684209</v>
       </c>
       <c r="F21">
-        <v>0.9568255160372351</v>
+        <v>1.022106726842105</v>
       </c>
       <c r="G21">
-        <v>0.9569365107262972</v>
+        <v>1.031342835789474</v>
       </c>
       <c r="H21">
-        <v>1.173467059371904</v>
+        <v>0.9204919189473684</v>
       </c>
       <c r="I21">
-        <v>0.9565558125374185</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="J21">
-        <v>1.173467059371904</v>
+        <v>0.9204919189473684</v>
       </c>
       <c r="K21">
-        <v>0.9565558125374185</v>
+        <v>0.9996629678947367</v>
       </c>
       <c r="L21">
-        <v>0.9569365107262972</v>
+        <v>1.031342835789474</v>
       </c>
       <c r="M21">
-        <v>1.0652017850491</v>
+        <v>0.9759173773684211</v>
       </c>
       <c r="N21">
-        <v>1.0652017850491</v>
+        <v>0.9759173773684211</v>
       </c>
       <c r="O21">
-        <v>1.07499102637222</v>
+        <v>0.9666982840350876</v>
       </c>
       <c r="P21">
-        <v>1.02898646087854</v>
+        <v>0.9838325742105263</v>
       </c>
       <c r="Q21">
-        <v>1.02898646087854</v>
+        <v>0.9838325742105264</v>
       </c>
       <c r="R21">
-        <v>1.010878798793259</v>
+        <v>0.987790172631579</v>
       </c>
       <c r="S21">
-        <v>1.010878798793259</v>
+        <v>0.987790172631579</v>
       </c>
       <c r="T21">
-        <v>1.004154903390836</v>
+        <v>1.00211539245614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9881400096302552</v>
+        <v>1.066816447368421</v>
       </c>
       <c r="D22">
-        <v>0.969129600173114</v>
+        <v>1.103303594736842</v>
       </c>
       <c r="E22">
-        <v>1.025175499027671</v>
+        <v>0.8962658610526315</v>
       </c>
       <c r="F22">
-        <v>0.988737009118141</v>
+        <v>1.04813602631579</v>
       </c>
       <c r="G22">
-        <v>0.9889826844603619</v>
+        <v>1.040448594736842</v>
       </c>
       <c r="H22">
-        <v>1.04444737005346</v>
+        <v>0.8007687910526315</v>
       </c>
       <c r="I22">
-        <v>0.9881400096302552</v>
+        <v>1.066816447368421</v>
       </c>
       <c r="J22">
-        <v>1.04444737005346</v>
+        <v>0.8007687910526315</v>
       </c>
       <c r="K22">
-        <v>0.9881400096302552</v>
+        <v>1.066816447368421</v>
       </c>
       <c r="L22">
-        <v>0.9889826844603619</v>
+        <v>1.040448594736842</v>
       </c>
       <c r="M22">
-        <v>1.016715027256911</v>
+        <v>0.9206086928947369</v>
       </c>
       <c r="N22">
-        <v>1.016715027256911</v>
+        <v>0.9206086928947369</v>
       </c>
       <c r="O22">
-        <v>1.019535184513831</v>
+        <v>0.912494415614035</v>
       </c>
       <c r="P22">
-        <v>1.007190021381359</v>
+        <v>0.9693446110526317</v>
       </c>
       <c r="Q22">
-        <v>1.007190021381359</v>
+        <v>0.9693446110526317</v>
       </c>
       <c r="R22">
-        <v>1.002427518443583</v>
+        <v>0.9937125701315791</v>
       </c>
       <c r="S22">
-        <v>1.002427518443583</v>
+        <v>0.9937125701315791</v>
       </c>
       <c r="T22">
-        <v>1.000768695410501</v>
+        <v>0.9926232192105265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9891261156197422</v>
+        <v>0.9565558125374185</v>
       </c>
       <c r="D23">
-        <v>0.9446912132375229</v>
+        <v>0.8865750126537043</v>
       </c>
       <c r="E23">
-        <v>1.038768516182305</v>
+        <v>1.094569509018459</v>
       </c>
       <c r="F23">
-        <v>0.9828655059055107</v>
+        <v>0.9568255160372351</v>
       </c>
       <c r="G23">
-        <v>0.9802891304142625</v>
+        <v>0.9569365107262972</v>
       </c>
       <c r="H23">
-        <v>1.065687611343511</v>
+        <v>1.173467059371904</v>
       </c>
       <c r="I23">
-        <v>0.9891261156197422</v>
+        <v>0.9565558125374185</v>
       </c>
       <c r="J23">
-        <v>1.065687611343511</v>
+        <v>1.173467059371904</v>
       </c>
       <c r="K23">
-        <v>0.9891261156197422</v>
+        <v>0.9565558125374185</v>
       </c>
       <c r="L23">
-        <v>0.9802891304142625</v>
+        <v>0.9569365107262972</v>
       </c>
       <c r="M23">
-        <v>1.022988370878887</v>
+        <v>1.0652017850491</v>
       </c>
       <c r="N23">
-        <v>1.022988370878887</v>
+        <v>1.0652017850491</v>
       </c>
       <c r="O23">
-        <v>1.02824841931336</v>
+        <v>1.07499102637222</v>
       </c>
       <c r="P23">
-        <v>1.011700952459172</v>
+        <v>1.02898646087854</v>
       </c>
       <c r="Q23">
-        <v>1.011700952459172</v>
+        <v>1.02898646087854</v>
       </c>
       <c r="R23">
-        <v>1.006057243249314</v>
+        <v>1.010878798793259</v>
       </c>
       <c r="S23">
-        <v>1.006057243249314</v>
+        <v>1.010878798793259</v>
       </c>
       <c r="T23">
-        <v>1.000238015450476</v>
+        <v>1.004154903390836</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9927659664095386</v>
+        <v>0.9881400096302552</v>
       </c>
       <c r="D24">
-        <v>0.991457346216166</v>
+        <v>0.969129600173114</v>
       </c>
       <c r="E24">
-        <v>1.010102917857146</v>
+        <v>1.025175499027671</v>
       </c>
       <c r="F24">
-        <v>0.9951083754200345</v>
+        <v>0.988737009118141</v>
       </c>
       <c r="G24">
-        <v>0.9960723305446388</v>
+        <v>0.9889826844603619</v>
       </c>
       <c r="H24">
-        <v>1.021084726870479</v>
+        <v>1.04444737005346</v>
       </c>
       <c r="I24">
-        <v>0.9927659664095386</v>
+        <v>0.9881400096302552</v>
       </c>
       <c r="J24">
-        <v>1.021084726870479</v>
+        <v>1.04444737005346</v>
       </c>
       <c r="K24">
-        <v>0.9927659664095386</v>
+        <v>0.9881400096302552</v>
       </c>
       <c r="L24">
-        <v>0.9960723305446388</v>
+        <v>0.9889826844603619</v>
       </c>
       <c r="M24">
-        <v>1.008578528707559</v>
+        <v>1.016715027256911</v>
       </c>
       <c r="N24">
-        <v>1.008578528707559</v>
+        <v>1.016715027256911</v>
       </c>
       <c r="O24">
-        <v>1.009086658424088</v>
+        <v>1.019535184513831</v>
       </c>
       <c r="P24">
-        <v>1.003307674608219</v>
+        <v>1.007190021381359</v>
       </c>
       <c r="Q24">
-        <v>1.003307674608219</v>
+        <v>1.007190021381359</v>
       </c>
       <c r="R24">
-        <v>1.000672247558549</v>
+        <v>1.002427518443583</v>
       </c>
       <c r="S24">
-        <v>1.000672247558549</v>
+        <v>1.002427518443583</v>
       </c>
       <c r="T24">
-        <v>1.001098610553001</v>
+        <v>1.000768695410501</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.05896550999756</v>
+        <v>0.9891261156197422</v>
       </c>
       <c r="D25">
-        <v>1.022981830125628</v>
+        <v>0.9446912132375229</v>
       </c>
       <c r="E25">
-        <v>0.9478335360028276</v>
+        <v>1.038768516182305</v>
       </c>
       <c r="F25">
-        <v>1.025483744486642</v>
+        <v>0.9828655059055107</v>
       </c>
       <c r="G25">
-        <v>1.011705240838845</v>
+        <v>0.9802891304142625</v>
       </c>
       <c r="H25">
-        <v>0.8860492708011987</v>
+        <v>1.065687611343511</v>
       </c>
       <c r="I25">
-        <v>1.05896550999756</v>
+        <v>0.9891261156197422</v>
       </c>
       <c r="J25">
-        <v>0.8860492708011987</v>
+        <v>1.065687611343511</v>
       </c>
       <c r="K25">
-        <v>1.05896550999756</v>
+        <v>0.9891261156197422</v>
       </c>
       <c r="L25">
-        <v>1.011705240838845</v>
+        <v>0.9802891304142625</v>
       </c>
       <c r="M25">
-        <v>0.9488772558200217</v>
+        <v>1.022988370878887</v>
       </c>
       <c r="N25">
-        <v>0.9488772558200217</v>
+        <v>1.022988370878887</v>
       </c>
       <c r="O25">
-        <v>0.9485293492142904</v>
+        <v>1.02824841931336</v>
       </c>
       <c r="P25">
-        <v>0.9855733405458676</v>
+        <v>1.011700952459172</v>
       </c>
       <c r="Q25">
-        <v>0.9855733405458676</v>
+        <v>1.011700952459172</v>
       </c>
       <c r="R25">
-        <v>1.003921382908791</v>
+        <v>1.006057243249314</v>
       </c>
       <c r="S25">
-        <v>1.003921382908791</v>
+        <v>1.006057243249314</v>
       </c>
       <c r="T25">
-        <v>0.9921698553754501</v>
+        <v>1.000238015450476</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9911203093065557</v>
+        <v>0.9927659664095386</v>
       </c>
       <c r="D26">
-        <v>1.0328201399228</v>
+        <v>0.991457346216166</v>
       </c>
       <c r="E26">
-        <v>0.9867215774662738</v>
+        <v>1.010102917857146</v>
       </c>
       <c r="F26">
-        <v>1.005359847239953</v>
+        <v>0.9951083754200345</v>
       </c>
       <c r="G26">
-        <v>1.011219747729839</v>
+        <v>0.9960723305446388</v>
       </c>
       <c r="H26">
-        <v>0.9833706552342959</v>
+        <v>1.021084726870479</v>
       </c>
       <c r="I26">
-        <v>0.9911203093065557</v>
+        <v>0.9927659664095386</v>
       </c>
       <c r="J26">
-        <v>0.9833706552342959</v>
+        <v>1.021084726870479</v>
       </c>
       <c r="K26">
-        <v>0.9911203093065557</v>
+        <v>0.9927659664095386</v>
       </c>
       <c r="L26">
-        <v>1.011219747729839</v>
+        <v>0.9960723305446388</v>
       </c>
       <c r="M26">
-        <v>0.9972952014820675</v>
+        <v>1.008578528707559</v>
       </c>
       <c r="N26">
-        <v>0.9972952014820675</v>
+        <v>1.008578528707559</v>
       </c>
       <c r="O26">
-        <v>0.9937706601434696</v>
+        <v>1.009086658424088</v>
       </c>
       <c r="P26">
-        <v>0.9952369040902301</v>
+        <v>1.003307674608219</v>
       </c>
       <c r="Q26">
-        <v>0.9952369040902301</v>
+        <v>1.003307674608219</v>
       </c>
       <c r="R26">
-        <v>0.9942077553943116</v>
+        <v>1.000672247558549</v>
       </c>
       <c r="S26">
-        <v>0.9942077553943116</v>
+        <v>1.000672247558549</v>
       </c>
       <c r="T26">
-        <v>1.001768712816619</v>
+        <v>1.001098610553001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.007539063242566</v>
+        <v>1.05896550999756</v>
       </c>
       <c r="D27">
-        <v>1.015455696747633</v>
+        <v>1.022981830125628</v>
       </c>
       <c r="E27">
-        <v>0.9861260814300561</v>
+        <v>0.9478335360028276</v>
       </c>
       <c r="F27">
-        <v>1.00635705542387</v>
+        <v>1.025483744486642</v>
       </c>
       <c r="G27">
-        <v>1.005870624744431</v>
+        <v>1.011705240838845</v>
       </c>
       <c r="H27">
-        <v>0.9741932594053861</v>
+        <v>0.8860492708011987</v>
       </c>
       <c r="I27">
-        <v>1.007539063242566</v>
+        <v>1.05896550999756</v>
       </c>
       <c r="J27">
-        <v>0.9741932594053861</v>
+        <v>0.8860492708011987</v>
       </c>
       <c r="K27">
-        <v>1.007539063242566</v>
+        <v>1.05896550999756</v>
       </c>
       <c r="L27">
-        <v>1.005870624744431</v>
+        <v>1.011705240838845</v>
       </c>
       <c r="M27">
-        <v>0.9900319420749084</v>
+        <v>0.9488772558200217</v>
       </c>
       <c r="N27">
-        <v>0.9900319420749084</v>
+        <v>0.9488772558200217</v>
       </c>
       <c r="O27">
-        <v>0.9887299885266243</v>
+        <v>0.9485293492142904</v>
       </c>
       <c r="P27">
-        <v>0.9958676491307944</v>
+        <v>0.9855733405458676</v>
       </c>
       <c r="Q27">
-        <v>0.9958676491307944</v>
+        <v>0.9855733405458676</v>
       </c>
       <c r="R27">
-        <v>0.9987855026587373</v>
+        <v>1.003921382908791</v>
       </c>
       <c r="S27">
-        <v>0.9987855026587373</v>
+        <v>1.003921382908791</v>
       </c>
       <c r="T27">
-        <v>0.9992569634989903</v>
+        <v>0.9921698553754501</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.006092248463665</v>
+        <v>0.9911203093065557</v>
       </c>
       <c r="D28">
-        <v>1.003446333253574</v>
+        <v>1.0328201399228</v>
       </c>
       <c r="E28">
-        <v>0.9939092861905958</v>
+        <v>0.9867215774662738</v>
       </c>
       <c r="F28">
-        <v>1.002969866162964</v>
+        <v>1.005359847239953</v>
       </c>
       <c r="G28">
-        <v>1.001684933311993</v>
+        <v>1.011219747729839</v>
       </c>
       <c r="H28">
-        <v>0.9868604164094521</v>
+        <v>0.9833706552342959</v>
       </c>
       <c r="I28">
-        <v>1.006092248463665</v>
+        <v>0.9911203093065557</v>
       </c>
       <c r="J28">
-        <v>0.9868604164094521</v>
+        <v>0.9833706552342959</v>
       </c>
       <c r="K28">
-        <v>1.006092248463665</v>
+        <v>0.9911203093065557</v>
       </c>
       <c r="L28">
-        <v>1.001684933311993</v>
+        <v>1.011219747729839</v>
       </c>
       <c r="M28">
-        <v>0.9942726748607228</v>
+        <v>0.9972952014820675</v>
       </c>
       <c r="N28">
-        <v>0.9942726748607228</v>
+        <v>0.9972952014820675</v>
       </c>
       <c r="O28">
-        <v>0.9941515453040138</v>
+        <v>0.9937706601434696</v>
       </c>
       <c r="P28">
-        <v>0.9982125327283704</v>
+        <v>0.9952369040902301</v>
       </c>
       <c r="Q28">
-        <v>0.9982125327283704</v>
+        <v>0.9952369040902301</v>
       </c>
       <c r="R28">
-        <v>1.000182461662194</v>
+        <v>0.9942077553943116</v>
       </c>
       <c r="S28">
-        <v>1.000182461662194</v>
+        <v>0.9942077553943116</v>
       </c>
       <c r="T28">
-        <v>0.9991605139653741</v>
+        <v>1.001768712816619</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="D29">
+        <v>1.015455696747633</v>
+      </c>
+      <c r="E29">
+        <v>0.9861260814300561</v>
+      </c>
+      <c r="F29">
+        <v>1.00635705542387</v>
+      </c>
+      <c r="G29">
+        <v>1.005870624744431</v>
+      </c>
+      <c r="H29">
+        <v>0.9741932594053861</v>
+      </c>
+      <c r="I29">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="J29">
+        <v>0.9741932594053861</v>
+      </c>
+      <c r="K29">
+        <v>1.007539063242566</v>
+      </c>
+      <c r="L29">
+        <v>1.005870624744431</v>
+      </c>
+      <c r="M29">
+        <v>0.9900319420749084</v>
+      </c>
+      <c r="N29">
+        <v>0.9900319420749084</v>
+      </c>
+      <c r="O29">
+        <v>0.9887299885266243</v>
+      </c>
+      <c r="P29">
+        <v>0.9958676491307944</v>
+      </c>
+      <c r="Q29">
+        <v>0.9958676491307944</v>
+      </c>
+      <c r="R29">
+        <v>0.9987855026587373</v>
+      </c>
+      <c r="S29">
+        <v>0.9987855026587373</v>
+      </c>
+      <c r="T29">
+        <v>0.9992569634989903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="D30">
+        <v>1.003446333253574</v>
+      </c>
+      <c r="E30">
+        <v>0.9939092861905958</v>
+      </c>
+      <c r="F30">
+        <v>1.002969866162964</v>
+      </c>
+      <c r="G30">
+        <v>1.001684933311993</v>
+      </c>
+      <c r="H30">
+        <v>0.9868604164094521</v>
+      </c>
+      <c r="I30">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="J30">
+        <v>0.9868604164094521</v>
+      </c>
+      <c r="K30">
+        <v>1.006092248463665</v>
+      </c>
+      <c r="L30">
+        <v>1.001684933311993</v>
+      </c>
+      <c r="M30">
+        <v>0.9942726748607228</v>
+      </c>
+      <c r="N30">
+        <v>0.9942726748607228</v>
+      </c>
+      <c r="O30">
+        <v>0.9941515453040138</v>
+      </c>
+      <c r="P30">
+        <v>0.9982125327283704</v>
+      </c>
+      <c r="Q30">
+        <v>0.9982125327283704</v>
+      </c>
+      <c r="R30">
+        <v>1.000182461662194</v>
+      </c>
+      <c r="S30">
+        <v>1.000182461662194</v>
+      </c>
+      <c r="T30">
+        <v>0.9991605139653741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9926498008646213</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9459604706558941</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.036553947592946</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9836448600057938</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9799391249235617</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.063023969518443</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9926498008646213</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.063023969518443</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9926498008646213</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9799391249235617</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.021481547221002</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.021481547221002</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.026505680678317</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.011870965102209</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.011870965102209</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.007065674042812</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.007065674042812</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.00029536226021</v>
       </c>
     </row>
